--- a/migforecasting/underground/tests on superdataset/test-18.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-18.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Random Forest-100 (superdataset-24.csv)</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Hybrid 3mig (superdataset-24 3mig.csv)</t>
+  </si>
+  <si>
+    <t>train (MSE)</t>
+  </si>
+  <si>
+    <t>test (MSE)</t>
   </si>
 </sst>
 </file>
@@ -90,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -99,6 +105,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -379,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J58"/>
+  <dimension ref="C4:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,9 +401,13 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +416,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>1</v>
@@ -418,8 +440,22 @@
       <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -438,8 +474,26 @@
       <c r="J6" s="3">
         <v>98.119538714991762</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3.9012656255087122E-3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2.6872809770650489E-2</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1.6109829045150639E-2</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0.1048899798475439</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -460,8 +514,28 @@
       <c r="J7" s="3">
         <v>90.379176276770991</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <f>M6+1</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>3.8802144292124029E-3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2.8297882858074969E-2</v>
+      </c>
+      <c r="R7" s="2">
+        <f>R6+1</f>
+        <v>2</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1.563627126254831E-2</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0.13546888842231469</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C55" si="0">C7+1</f>
         <v>3</v>
@@ -482,8 +556,28 @@
       <c r="J8" s="3">
         <v>93.402537067545296</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <f t="shared" ref="M8:M55" si="2">M7+1</f>
+        <v>3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3.8304198092593668E-3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2.6811164812730631E-2</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8:R55" si="3">R7+1</f>
+        <v>3</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1.58157073523255E-2</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0.1142932248575589</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -504,8 +598,28 @@
       <c r="J9" s="3">
         <v>99.954942339373972</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3.6859332530850609E-3</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2.8402875125575131E-2</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1.5758742281432869E-2</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0.14071396812482501</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -526,8 +640,28 @@
       <c r="J10" s="3">
         <v>91.365222405271837</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3.80306349724318E-3</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2.5853134642315759E-2</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1.637149109849112E-2</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0.1031937587770769</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -548,8 +682,28 @@
       <c r="J11" s="3">
         <v>95.498369028006579</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3.768815482112625E-3</v>
+      </c>
+      <c r="O11" s="4">
+        <v>3.0369313080958471E-2</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1.6127391373465201E-2</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0.1079508210885281</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -570,8 +724,28 @@
       <c r="J12" s="3">
         <v>100.81782537067549</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3.8064013351161341E-3</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2.9039274741696479E-2</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1.6412838125826359E-2</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0.11743866842578091</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -592,8 +766,28 @@
       <c r="J13" s="3">
         <v>94.499456342668879</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3.8383955338046928E-3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2.7928201559299069E-2</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1.6014825205546361E-2</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0.11366096366702839</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -614,8 +808,28 @@
       <c r="J14" s="3">
         <v>97.471268533772644</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="4">
+        <v>3.8991542600385911E-3</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2.8141538016755889E-2</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1.6610588248178359E-2</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0.1003431300845207</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -636,8 +850,28 @@
       <c r="J15" s="3">
         <v>96.096375617792418</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N15" s="4">
+        <v>3.8535817048818829E-3</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2.687925624265711E-2</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="S15" s="4">
+        <v>1.582650151633572E-2</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0.1223908590248162</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -658,8 +892,28 @@
       <c r="J16" s="3">
         <v>98.251136738056005</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N16" s="4">
+        <v>3.8035737978991042E-3</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2.882085174650945E-2</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1.624119763832153E-2</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0.1055733717274743</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -680,8 +934,28 @@
       <c r="J17" s="3">
         <v>92.369406919275121</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N17" s="4">
+        <v>3.7016948072582652E-3</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2.975635506976828E-2</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1.6294077337454329E-2</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0.10789844222542171</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -702,8 +976,28 @@
       <c r="J18" s="3">
         <v>91.60800658978583</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N18" s="4">
+        <v>3.7794792730085069E-3</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2.734510818016956E-2</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1.619844048799382E-2</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0.12182370144466199</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -724,8 +1018,28 @@
       <c r="J19" s="3">
         <v>98.805485996705116</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3.9511753103124696E-3</v>
+      </c>
+      <c r="O19" s="4">
+        <v>2.549298724019286E-2</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1.5927566473349711E-2</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0.12746338319780059</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -746,8 +1060,28 @@
       <c r="J20" s="3">
         <v>96.893970345963751</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N20" s="4">
+        <v>3.9310945414033054E-3</v>
+      </c>
+      <c r="O20" s="4">
+        <v>2.4181809072906651E-2</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1.621237921114406E-2</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0.11959101595211551</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -768,8 +1102,28 @@
       <c r="J21" s="3">
         <v>99.172915980230627</v>
       </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N21" s="4">
+        <v>3.8895802447439631E-3</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2.5848474995463978E-2</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1.5867098802281241E-2</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0.1107227811412525</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -790,8 +1144,28 @@
       <c r="J22" s="3">
         <v>98.206161449752869</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N22" s="4">
+        <v>3.9347203993610304E-3</v>
+      </c>
+      <c r="O22" s="4">
+        <v>2.6240046834724091E-2</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="S22" s="4">
+        <v>1.595629769592052E-2</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0.12543908817301461</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -812,8 +1186,28 @@
       <c r="J23" s="3">
         <v>95.405782537067537</v>
       </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N23" s="4">
+        <v>3.8073867233460409E-3</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2.8783177102295769E-2</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="S23" s="4">
+        <v>1.6006224042350161E-2</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0.1164852768663862</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -834,8 +1228,28 @@
       <c r="J24" s="3">
         <v>99.203360790774298</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N24" s="4">
+        <v>3.905734568014658E-3</v>
+      </c>
+      <c r="O24" s="4">
+        <v>2.481079967838417E-2</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="S24" s="4">
+        <v>1.6360834613001751E-2</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0.10981651424974891</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -856,8 +1270,28 @@
       <c r="J25" s="3">
         <v>98.178352553542027</v>
       </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N25" s="4">
+        <v>3.8327794613647959E-3</v>
+      </c>
+      <c r="O25" s="4">
+        <v>2.6490374757372689E-2</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1.6407409906681599E-2</v>
+      </c>
+      <c r="T25" s="4">
+        <v>9.685498052852648E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -878,8 +1312,28 @@
       <c r="J26" s="3">
         <v>94.267364085667211</v>
       </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N26" s="4">
+        <v>3.7937332617988938E-3</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2.8047402593543391E-2</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1.610766936205122E-2</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0.1203116542243416</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -900,8 +1354,28 @@
       <c r="J27" s="3">
         <v>99.290247116968686</v>
       </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N27" s="4">
+        <v>3.8909347802066349E-3</v>
+      </c>
+      <c r="O27" s="4">
+        <v>2.5780589083182689E-2</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1.6171577539000639E-2</v>
+      </c>
+      <c r="T27" s="4">
+        <v>9.6846918624473879E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -922,8 +1396,28 @@
       <c r="J28" s="3">
         <v>94.20331136738055</v>
       </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N28" s="4">
+        <v>3.876071983761956E-3</v>
+      </c>
+      <c r="O28" s="4">
+        <v>2.5570233238790499E-2</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1.6469307139596479E-2</v>
+      </c>
+      <c r="T28" s="4">
+        <v>9.9294825538304349E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -944,8 +1438,28 @@
       <c r="J29" s="3">
         <v>101.64115321252061</v>
       </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N29" s="4">
+        <v>3.940080044885135E-3</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2.8819020744889162E-2</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1.6326498022964309E-2</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0.10396777762012741</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -966,8 +1480,28 @@
       <c r="J30" s="3">
         <v>99.883904448105426</v>
       </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N30" s="4">
+        <v>3.783030765446027E-3</v>
+      </c>
+      <c r="O30" s="4">
+        <v>3.0057788823361881E-2</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1.6331724261563828E-2</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0.1111102762331896</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -988,8 +1522,28 @@
       <c r="J31" s="3">
         <v>94.56703459637562</v>
       </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N31" s="4">
+        <v>3.8163153264058592E-3</v>
+      </c>
+      <c r="O31" s="4">
+        <v>3.036462570137707E-2</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1.612475782152779E-2</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0.1054306324877396</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1010,8 +1564,28 @@
       <c r="J32" s="3">
         <v>95.447874794069193</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N32" s="4">
+        <v>3.9225142717788566E-3</v>
+      </c>
+      <c r="O32" s="4">
+        <v>2.6176243985086022E-2</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1.635713944125199E-2</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0.1113545336587044</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1032,8 +1606,28 @@
       <c r="J33" s="3">
         <v>94.198467874794062</v>
       </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N33" s="4">
+        <v>3.825211961441108E-3</v>
+      </c>
+      <c r="O33" s="4">
+        <v>2.77923234996077E-2</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1.6230239658519819E-2</v>
+      </c>
+      <c r="T33" s="4">
+        <v>0.11437719732276989</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1054,8 +1648,28 @@
       <c r="J34" s="3">
         <v>100.8163756177924</v>
       </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N34" s="4">
+        <v>3.7196619024681249E-3</v>
+      </c>
+      <c r="O34" s="4">
+        <v>3.1133483508790579E-2</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="S34" s="4">
+        <v>1.596093424628351E-2</v>
+      </c>
+      <c r="T34" s="4">
+        <v>0.1241265577353385</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1076,8 +1690,28 @@
       <c r="J35" s="3">
         <v>102.1887314662273</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N35" s="4">
+        <v>3.882863579783511E-3</v>
+      </c>
+      <c r="O35" s="4">
+        <v>2.667409849898604E-2</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="S35" s="4">
+        <v>1.5782989537443979E-2</v>
+      </c>
+      <c r="T35" s="4">
+        <v>0.13096961870273999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1098,8 +1732,28 @@
       <c r="J36" s="3">
         <v>95.626326194398672</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N36" s="4">
+        <v>3.8561259247562869E-3</v>
+      </c>
+      <c r="O36" s="4">
+        <v>2.6440087674392359E-2</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="S36" s="4">
+        <v>1.6161150956679471E-2</v>
+      </c>
+      <c r="T36" s="4">
+        <v>9.8910116886191432E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1120,8 +1774,28 @@
       <c r="J37" s="3">
         <v>100.96090609555191</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N37" s="4">
+        <v>3.87087215101141E-3</v>
+      </c>
+      <c r="O37" s="4">
+        <v>2.8551800829002751E-2</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="S37" s="4">
+        <v>1.6175552026412521E-2</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0.1171962586029224</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1142,8 +1816,28 @@
       <c r="J38" s="3">
         <v>97.730757825370674</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N38" s="4">
+        <v>3.8285427536956982E-3</v>
+      </c>
+      <c r="O38" s="4">
+        <v>2.6971365282784019E-2</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="S38" s="4">
+        <v>1.6247480776532298E-2</v>
+      </c>
+      <c r="T38" s="4">
+        <v>0.11807459840228821</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1164,8 +1858,28 @@
       <c r="J39" s="3">
         <v>100.04014827018121</v>
       </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N39" s="4">
+        <v>3.816965740176077E-3</v>
+      </c>
+      <c r="O39" s="4">
+        <v>2.8085421339488811E-2</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="S39" s="4">
+        <v>1.6109127212988541E-2</v>
+      </c>
+      <c r="T39" s="4">
+        <v>0.1216451587450041</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1186,8 +1900,28 @@
       <c r="J40" s="3">
         <v>92.888780889621074</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N40" s="4">
+        <v>3.8379187546036348E-3</v>
+      </c>
+      <c r="O40" s="4">
+        <v>2.77635868504937E-2</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="S40" s="4">
+        <v>1.6239327934064421E-2</v>
+      </c>
+      <c r="T40" s="4">
+        <v>0.11534079371835559</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1208,8 +1942,28 @@
       <c r="J41" s="3">
         <v>93.028303130148259</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N41" s="4">
+        <v>3.8568270057973589E-3</v>
+      </c>
+      <c r="O41" s="4">
+        <v>2.7218575965366941E-2</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="S41" s="4">
+        <v>1.6571083881719569E-2</v>
+      </c>
+      <c r="T41" s="4">
+        <v>0.1085935293727698</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1230,8 +1984,28 @@
       <c r="J42" s="3">
         <v>97.766853377265235</v>
       </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N42" s="4">
+        <v>3.80889543350832E-3</v>
+      </c>
+      <c r="O42" s="4">
+        <v>2.9723421719144799E-2</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="S42" s="4">
+        <v>1.5704448452191721E-2</v>
+      </c>
+      <c r="T42" s="4">
+        <v>0.13299671153682549</v>
+      </c>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1252,8 +2026,28 @@
       <c r="J43" s="3">
         <v>100.72215815486</v>
       </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N43" s="4">
+        <v>4.0074705160596091E-3</v>
+      </c>
+      <c r="O43" s="4">
+        <v>2.5739825124919659E-2</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="S43" s="4">
+        <v>1.6314337285846331E-2</v>
+      </c>
+      <c r="T43" s="4">
+        <v>0.1118793700198684</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1274,8 +2068,28 @@
       <c r="J44" s="3">
         <v>97.155634266886324</v>
       </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N44" s="4">
+        <v>3.8453490871246292E-3</v>
+      </c>
+      <c r="O44" s="4">
+        <v>2.6779323254488101E-2</v>
+      </c>
+      <c r="R44" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="S44" s="4">
+        <v>1.6064023629028371E-2</v>
+      </c>
+      <c r="T44" s="4">
+        <v>0.113703116335843</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1296,8 +2110,28 @@
       <c r="J45" s="3">
         <v>98.425074135090597</v>
       </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N45" s="4">
+        <v>3.8696770321489972E-3</v>
+      </c>
+      <c r="O45" s="4">
+        <v>2.401601120272474E-2</v>
+      </c>
+      <c r="R45" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S45" s="4">
+        <v>1.6279320023060501E-2</v>
+      </c>
+      <c r="T45" s="4">
+        <v>0.10513988367133389</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1318,8 +2152,28 @@
       <c r="J46" s="3">
         <v>100.5681054365733</v>
       </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N46" s="4">
+        <v>3.85987498298773E-3</v>
+      </c>
+      <c r="O46" s="4">
+        <v>2.8005137930539891E-2</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="S46" s="4">
+        <v>1.6301034879953109E-2</v>
+      </c>
+      <c r="T46" s="4">
+        <v>0.1091572296769589</v>
+      </c>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1340,8 +2194,28 @@
       <c r="J47" s="3">
         <v>96.905024711696854</v>
       </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N47" s="4">
+        <v>3.709589710884737E-3</v>
+      </c>
+      <c r="O47" s="4">
+        <v>3.0798913894152791E-2</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="S47" s="4">
+        <v>1.627853153736044E-2</v>
+      </c>
+      <c r="T47" s="4">
+        <v>0.11316049752005</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1362,8 +2236,28 @@
       <c r="J48" s="3">
         <v>102.3601812191104</v>
       </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N48" s="4">
+        <v>3.839143271601504E-3</v>
+      </c>
+      <c r="O48" s="4">
+        <v>2.8537236460197641E-2</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="S48" s="4">
+        <v>1.607312012214308E-2</v>
+      </c>
+      <c r="T48" s="4">
+        <v>0.12567574917072261</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1384,8 +2278,28 @@
       <c r="J49" s="3">
         <v>91.754217462932445</v>
       </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N49" s="4">
+        <v>3.7703139498748012E-3</v>
+      </c>
+      <c r="O49" s="4">
+        <v>2.8668062253393911E-2</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="S49" s="4">
+        <v>1.6257455911798901E-2</v>
+      </c>
+      <c r="T49" s="4">
+        <v>9.6955093798151093E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1406,8 +2320,28 @@
       <c r="J50" s="3">
         <v>99.831680395387139</v>
       </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N50" s="4">
+        <v>3.8507157867619509E-3</v>
+      </c>
+      <c r="O50" s="4">
+        <v>2.8005740654497211E-2</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="S50" s="4">
+        <v>1.5639946385829519E-2</v>
+      </c>
+      <c r="T50" s="4">
+        <v>0.15736444880638409</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1428,8 +2362,28 @@
       <c r="J51" s="3">
         <v>97.082504118616143</v>
       </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N51" s="4">
+        <v>3.8623685416919211E-3</v>
+      </c>
+      <c r="O51" s="4">
+        <v>2.612216900567654E-2</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="S51" s="4">
+        <v>1.5996401224504419E-2</v>
+      </c>
+      <c r="T51" s="4">
+        <v>0.12636430357300429</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1450,8 +2404,28 @@
       <c r="J52" s="3">
         <v>97.593772652388793</v>
       </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N52" s="4">
+        <v>3.721545626216185E-3</v>
+      </c>
+      <c r="O52" s="4">
+        <v>2.9210147704990919E-2</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="S52" s="4">
+        <v>1.5878225838000581E-2</v>
+      </c>
+      <c r="T52" s="4">
+        <v>0.1215619754010778</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1472,8 +2446,28 @@
       <c r="J53" s="3">
         <v>96.111235584843499</v>
       </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N53" s="4">
+        <v>3.7979591781253392E-3</v>
+      </c>
+      <c r="O53" s="4">
+        <v>2.8592664583893521E-2</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="S53" s="4">
+        <v>1.6188079271295189E-2</v>
+      </c>
+      <c r="T53" s="4">
+        <v>0.1160817583025565</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1494,8 +2488,28 @@
       <c r="J54" s="3">
         <v>96.845271828665574</v>
       </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N54" s="4">
+        <v>3.8286546026109719E-3</v>
+      </c>
+      <c r="O54" s="4">
+        <v>2.8166956626693759E-2</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="S54" s="4">
+        <v>1.6345134777465489E-2</v>
+      </c>
+      <c r="T54" s="4">
+        <v>0.1029572854855965</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1516,8 +2530,34 @@
       <c r="J55" s="3">
         <v>99.936062602965407</v>
       </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N55" s="4">
+        <v>3.7450634272971472E-3</v>
+      </c>
+      <c r="O55" s="4">
+        <v>2.8923390865649719E-2</v>
+      </c>
+      <c r="R55" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="S55" s="4">
+        <v>1.6471135066115201E-2</v>
+      </c>
+      <c r="T55" s="4">
+        <v>0.1009698025391584</v>
+      </c>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
@@ -1540,8 +2580,30 @@
         <f>AVERAGE(J6:J55)</f>
         <v>97.11073509060958</v>
       </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="4">
+        <f>AVERAGE(N6:N55)</f>
+        <v>3.8367751082377033E-3</v>
+      </c>
+      <c r="O57" s="4">
+        <f>AVERAGE(O6:O55)</f>
+        <v>2.7662021688572166E-2</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="4">
+        <f>AVERAGE(S6:S55)</f>
+        <v>1.614626931881985E-2</v>
+      </c>
+      <c r="T57" s="4">
+        <f>AVERAGE(T6:T55)</f>
+        <v>0.11467060983078378</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
@@ -1564,8 +2626,31 @@
         <f>_xlfn.STDEV.S(J6:J55)</f>
         <v>3.0763077357669402</v>
       </c>
+      <c r="M58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="4">
+        <f>_xlfn.STDEV.S(N6:N55)</f>
+        <v>6.7713886455263164E-5</v>
+      </c>
+      <c r="O58" s="4">
+        <f>_xlfn.STDEV.S(O6:O55)</f>
+        <v>1.6698090965107128E-3</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="4">
+        <f>_xlfn.STDEV.S(S6:S55)</f>
+        <v>2.3516650963507311E-4</v>
+      </c>
+      <c r="T58" s="4">
+        <f>_xlfn.STDEV.S(T6:T55)</f>
+        <v>1.2167636195887331E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/migforecasting/underground/tests on superdataset/test-18.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-18.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mae|mse" sheetId="1" r:id="rId1"/>
+    <sheet name="mae" sheetId="1" r:id="rId1"/>
+    <sheet name="mse" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
   <si>
     <t>Random Forest-100 (superdataset-24.csv)</t>
   </si>
@@ -44,11 +45,17 @@
   <si>
     <t>test (MSE)</t>
   </si>
+  <si>
+    <t>Hybrid 3mig (superdataset-24 3mig.csv) test 20%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -109,6 +116,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -391,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,10 +411,12 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
     <col min="19" max="19" width="11.7109375" customWidth="1"/>
     <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
@@ -417,12 +429,10 @@
       </c>
       <c r="J4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="R4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
@@ -442,18 +452,14 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R5" s="2"/>
-      <c r="S5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
@@ -477,21 +483,15 @@
       <c r="M6" s="2">
         <v>1</v>
       </c>
-      <c r="N6" s="4">
-        <v>3.9012656255087122E-3</v>
-      </c>
-      <c r="O6" s="4">
-        <v>2.6872809770650489E-2</v>
-      </c>
-      <c r="R6" s="2">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1.6109829045150639E-2</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0.1048899798475439</v>
-      </c>
+      <c r="N6" s="3">
+        <v>37.150267930750204</v>
+      </c>
+      <c r="O6" s="3">
+        <v>94.32431162407255</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
@@ -518,22 +518,15 @@
         <f>M6+1</f>
         <v>2</v>
       </c>
-      <c r="N7" s="4">
-        <v>3.8802144292124029E-3</v>
-      </c>
-      <c r="O7" s="4">
-        <v>2.8297882858074969E-2</v>
-      </c>
-      <c r="R7" s="2">
-        <f>R6+1</f>
-        <v>2</v>
-      </c>
-      <c r="S7" s="4">
-        <v>1.563627126254831E-2</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0.13546888842231469</v>
-      </c>
+      <c r="N7" s="3">
+        <v>36.62485160758451</v>
+      </c>
+      <c r="O7" s="3">
+        <v>100.81861500412199</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
@@ -560,22 +553,15 @@
         <f t="shared" ref="M8:M55" si="2">M7+1</f>
         <v>3</v>
       </c>
-      <c r="N8" s="4">
-        <v>3.8304198092593668E-3</v>
-      </c>
-      <c r="O8" s="4">
-        <v>2.6811164812730631E-2</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" ref="R8:R55" si="3">R7+1</f>
-        <v>3</v>
-      </c>
-      <c r="S8" s="4">
-        <v>1.58157073523255E-2</v>
-      </c>
-      <c r="T8" s="4">
-        <v>0.1142932248575589</v>
-      </c>
+      <c r="N8" s="3">
+        <v>36.731997114591927</v>
+      </c>
+      <c r="O8" s="3">
+        <v>97.74926628194558</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
@@ -602,22 +588,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N9" s="4">
-        <v>3.6859332530850609E-3</v>
-      </c>
-      <c r="O9" s="4">
-        <v>2.8402875125575131E-2</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="S9" s="4">
-        <v>1.5758742281432869E-2</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0.14071396812482501</v>
-      </c>
+      <c r="N9" s="3">
+        <v>36.592071310799668</v>
+      </c>
+      <c r="O9" s="3">
+        <v>102.9252431986809</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
@@ -644,22 +623,15 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N10" s="4">
-        <v>3.80306349724318E-3</v>
-      </c>
-      <c r="O10" s="4">
-        <v>2.5853134642315759E-2</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="S10" s="4">
-        <v>1.637149109849112E-2</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0.1031937587770769</v>
-      </c>
+      <c r="N10" s="3">
+        <v>36.679361088211053</v>
+      </c>
+      <c r="O10" s="3">
+        <v>97.465614179719694</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
@@ -686,22 +658,15 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N11" s="4">
-        <v>3.768815482112625E-3</v>
-      </c>
-      <c r="O11" s="4">
-        <v>3.0369313080958471E-2</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="S11" s="4">
-        <v>1.6127391373465201E-2</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0.1079508210885281</v>
-      </c>
+      <c r="N11" s="3">
+        <v>36.983932399010719</v>
+      </c>
+      <c r="O11" s="3">
+        <v>98.466339653751021</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
@@ -728,22 +693,15 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N12" s="4">
-        <v>3.8064013351161341E-3</v>
-      </c>
-      <c r="O12" s="4">
-        <v>2.9039274741696479E-2</v>
-      </c>
-      <c r="R12" s="2">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="S12" s="4">
-        <v>1.6412838125826359E-2</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0.11743866842578091</v>
-      </c>
+      <c r="N12" s="3">
+        <v>36.686869332234131</v>
+      </c>
+      <c r="O12" s="3">
+        <v>98.666298433635603</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
@@ -770,22 +728,15 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N13" s="4">
-        <v>3.8383955338046928E-3</v>
-      </c>
-      <c r="O13" s="4">
-        <v>2.7928201559299069E-2</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="S13" s="4">
-        <v>1.6014825205546361E-2</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0.11366096366702839</v>
-      </c>
+      <c r="N13" s="3">
+        <v>36.641434460016477</v>
+      </c>
+      <c r="O13" s="3">
+        <v>100.028713932399</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
@@ -812,22 +763,15 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N14" s="4">
-        <v>3.8991542600385911E-3</v>
-      </c>
-      <c r="O14" s="4">
-        <v>2.8141538016755889E-2</v>
-      </c>
-      <c r="R14" s="2">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="S14" s="4">
-        <v>1.6610588248178359E-2</v>
-      </c>
-      <c r="T14" s="4">
-        <v>0.1003431300845207</v>
-      </c>
+      <c r="N14" s="3">
+        <v>36.694311624072547</v>
+      </c>
+      <c r="O14" s="3">
+        <v>99.567782357790605</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
@@ -854,22 +798,15 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N15" s="4">
-        <v>3.8535817048818829E-3</v>
-      </c>
-      <c r="O15" s="4">
-        <v>2.687925624265711E-2</v>
-      </c>
-      <c r="R15" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="S15" s="4">
-        <v>1.582650151633572E-2</v>
-      </c>
-      <c r="T15" s="4">
-        <v>0.1223908590248162</v>
-      </c>
+      <c r="N15" s="3">
+        <v>37.036650865622427</v>
+      </c>
+      <c r="O15" s="3">
+        <v>95.384830997526777</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
@@ -896,22 +833,15 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="N16" s="4">
-        <v>3.8035737978991042E-3</v>
-      </c>
-      <c r="O16" s="4">
-        <v>2.882085174650945E-2</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="S16" s="4">
-        <v>1.624119763832153E-2</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0.1055733717274743</v>
-      </c>
+      <c r="N16" s="3">
+        <v>36.528528441879637</v>
+      </c>
+      <c r="O16" s="3">
+        <v>98.469719703215162</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
@@ -938,22 +868,15 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N17" s="4">
-        <v>3.7016948072582652E-3</v>
-      </c>
-      <c r="O17" s="4">
-        <v>2.975635506976828E-2</v>
-      </c>
-      <c r="R17" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="S17" s="4">
-        <v>1.6294077337454329E-2</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0.10789844222542171</v>
-      </c>
+      <c r="N17" s="3">
+        <v>36.482992580379232</v>
+      </c>
+      <c r="O17" s="3">
+        <v>103.12162407254741</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
@@ -980,22 +903,15 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="N18" s="4">
-        <v>3.7794792730085069E-3</v>
-      </c>
-      <c r="O18" s="4">
-        <v>2.734510818016956E-2</v>
-      </c>
-      <c r="R18" s="2">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="S18" s="4">
-        <v>1.619844048799382E-2</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0.12182370144466199</v>
-      </c>
+      <c r="N18" s="3">
+        <v>36.086180956306677</v>
+      </c>
+      <c r="O18" s="3">
+        <v>105.6082605111294</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
@@ -1022,22 +938,15 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="N19" s="4">
-        <v>3.9511753103124696E-3</v>
-      </c>
-      <c r="O19" s="4">
-        <v>2.549298724019286E-2</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="S19" s="4">
-        <v>1.5927566473349711E-2</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0.12746338319780059</v>
-      </c>
+      <c r="N19" s="3">
+        <v>37.064183841714758</v>
+      </c>
+      <c r="O19" s="3">
+        <v>96.916356141797209</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
@@ -1064,22 +973,15 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="N20" s="4">
-        <v>3.9310945414033054E-3</v>
-      </c>
-      <c r="O20" s="4">
-        <v>2.4181809072906651E-2</v>
-      </c>
-      <c r="R20" s="2">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="S20" s="4">
-        <v>1.621237921114406E-2</v>
-      </c>
-      <c r="T20" s="4">
-        <v>0.11959101595211551</v>
-      </c>
+      <c r="N20" s="3">
+        <v>36.37120568837593</v>
+      </c>
+      <c r="O20" s="3">
+        <v>100.4125886232481</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
@@ -1106,22 +1008,15 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="N21" s="4">
-        <v>3.8895802447439631E-3</v>
-      </c>
-      <c r="O21" s="4">
-        <v>2.5848474995463978E-2</v>
-      </c>
-      <c r="R21" s="2">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="S21" s="4">
-        <v>1.5867098802281241E-2</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0.1107227811412525</v>
-      </c>
+      <c r="N21" s="3">
+        <v>36.188173948887062</v>
+      </c>
+      <c r="O21" s="3">
+        <v>104.6828029678483</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
@@ -1148,22 +1043,15 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="N22" s="4">
-        <v>3.9347203993610304E-3</v>
-      </c>
-      <c r="O22" s="4">
-        <v>2.6240046834724091E-2</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="S22" s="4">
-        <v>1.595629769592052E-2</v>
-      </c>
-      <c r="T22" s="4">
-        <v>0.12543908817301461</v>
-      </c>
+      <c r="N22" s="3">
+        <v>36.675989282769997</v>
+      </c>
+      <c r="O22" s="3">
+        <v>100.9935861500412</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
@@ -1190,22 +1078,15 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N23" s="4">
-        <v>3.8073867233460409E-3</v>
-      </c>
-      <c r="O23" s="4">
-        <v>2.8783177102295769E-2</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="S23" s="4">
-        <v>1.6006224042350161E-2</v>
-      </c>
-      <c r="T23" s="4">
-        <v>0.1164852768663862</v>
-      </c>
+      <c r="N23" s="3">
+        <v>37.002112530915078</v>
+      </c>
+      <c r="O23" s="3">
+        <v>97.938318219291006</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
@@ -1232,22 +1113,15 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N24" s="4">
-        <v>3.905734568014658E-3</v>
-      </c>
-      <c r="O24" s="4">
-        <v>2.481079967838417E-2</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="S24" s="4">
-        <v>1.6360834613001751E-2</v>
-      </c>
-      <c r="T24" s="4">
-        <v>0.10981651424974891</v>
-      </c>
+      <c r="N24" s="3">
+        <v>36.990566776586967</v>
+      </c>
+      <c r="O24" s="3">
+        <v>96.080247320692493</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
@@ -1274,22 +1148,15 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="N25" s="4">
-        <v>3.8327794613647959E-3</v>
-      </c>
-      <c r="O25" s="4">
-        <v>2.6490374757372689E-2</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="S25" s="4">
-        <v>1.6407409906681599E-2</v>
-      </c>
-      <c r="T25" s="4">
-        <v>9.685498052852648E-2</v>
-      </c>
+      <c r="N25" s="3">
+        <v>37.002563891178887</v>
+      </c>
+      <c r="O25" s="3">
+        <v>95.408755152514431</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
@@ -1316,22 +1183,15 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="N26" s="4">
-        <v>3.7937332617988938E-3</v>
-      </c>
-      <c r="O26" s="4">
-        <v>2.8047402593543391E-2</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="S26" s="4">
-        <v>1.610766936205122E-2</v>
-      </c>
-      <c r="T26" s="4">
-        <v>0.1203116542243416</v>
-      </c>
+      <c r="N26" s="3">
+        <v>36.486191261335527</v>
+      </c>
+      <c r="O26" s="3">
+        <v>100.25098928277001</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
@@ -1358,22 +1218,15 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="N27" s="4">
-        <v>3.8909347802066349E-3</v>
-      </c>
-      <c r="O27" s="4">
-        <v>2.5780589083182689E-2</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="S27" s="4">
-        <v>1.6171577539000639E-2</v>
-      </c>
-      <c r="T27" s="4">
-        <v>9.6846918624473879E-2</v>
-      </c>
+      <c r="N27" s="3">
+        <v>36.785570898598522</v>
+      </c>
+      <c r="O27" s="3">
+        <v>99.111203627370145</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
@@ -1400,22 +1253,15 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="N28" s="4">
-        <v>3.876071983761956E-3</v>
-      </c>
-      <c r="O28" s="4">
-        <v>2.5570233238790499E-2</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="S28" s="4">
-        <v>1.6469307139596479E-2</v>
-      </c>
-      <c r="T28" s="4">
-        <v>9.9294825538304349E-2</v>
-      </c>
+      <c r="N28" s="3">
+        <v>36.093042044517723</v>
+      </c>
+      <c r="O28" s="3">
+        <v>103.78110469909311</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
@@ -1442,22 +1288,15 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="N29" s="4">
-        <v>3.940080044885135E-3</v>
-      </c>
-      <c r="O29" s="4">
-        <v>2.8819020744889162E-2</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="S29" s="4">
-        <v>1.6326498022964309E-2</v>
-      </c>
-      <c r="T29" s="4">
-        <v>0.10396777762012741</v>
-      </c>
+      <c r="N29" s="3">
+        <v>36.912629843363568</v>
+      </c>
+      <c r="O29" s="3">
+        <v>97.725721352019775</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
@@ -1484,22 +1323,15 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="N30" s="4">
-        <v>3.783030765446027E-3</v>
-      </c>
-      <c r="O30" s="4">
-        <v>3.0057788823361881E-2</v>
-      </c>
-      <c r="R30" s="2">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="S30" s="4">
-        <v>1.6331724261563828E-2</v>
-      </c>
-      <c r="T30" s="4">
-        <v>0.1111102762331896</v>
-      </c>
+      <c r="N30" s="3">
+        <v>37.236496290189613</v>
+      </c>
+      <c r="O30" s="3">
+        <v>91.387287716405609</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
@@ -1526,22 +1358,15 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="N31" s="4">
-        <v>3.8163153264058592E-3</v>
-      </c>
-      <c r="O31" s="4">
-        <v>3.036462570137707E-2</v>
-      </c>
-      <c r="R31" s="2">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="S31" s="4">
-        <v>1.612475782152779E-2</v>
-      </c>
-      <c r="T31" s="4">
-        <v>0.1054306324877396</v>
-      </c>
+      <c r="N31" s="3">
+        <v>36.960661582852431</v>
+      </c>
+      <c r="O31" s="3">
+        <v>93.490972794723817</v>
+      </c>
+      <c r="R31" s="2"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
@@ -1568,22 +1393,15 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="N32" s="4">
-        <v>3.9225142717788566E-3</v>
-      </c>
-      <c r="O32" s="4">
-        <v>2.6176243985086022E-2</v>
-      </c>
-      <c r="R32" s="2">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="S32" s="4">
-        <v>1.635713944125199E-2</v>
-      </c>
-      <c r="T32" s="4">
-        <v>0.1113545336587044</v>
-      </c>
+      <c r="N32" s="3">
+        <v>36.912838004946423</v>
+      </c>
+      <c r="O32" s="3">
+        <v>96.618499587798837</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
@@ -1610,22 +1428,15 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="N33" s="4">
-        <v>3.825211961441108E-3</v>
-      </c>
-      <c r="O33" s="4">
-        <v>2.77923234996077E-2</v>
-      </c>
-      <c r="R33" s="2">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="S33" s="4">
-        <v>1.6230239658519819E-2</v>
-      </c>
-      <c r="T33" s="4">
-        <v>0.11437719732276989</v>
-      </c>
+      <c r="N33" s="3">
+        <v>36.629185902720529</v>
+      </c>
+      <c r="O33" s="3">
+        <v>98.516760098928273</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
@@ -1652,22 +1463,15 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="N34" s="4">
-        <v>3.7196619024681249E-3</v>
-      </c>
-      <c r="O34" s="4">
-        <v>3.1133483508790579E-2</v>
-      </c>
-      <c r="R34" s="2">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="S34" s="4">
-        <v>1.596093424628351E-2</v>
-      </c>
-      <c r="T34" s="4">
-        <v>0.1241265577353385</v>
-      </c>
+      <c r="N34" s="3">
+        <v>36.92284212695796</v>
+      </c>
+      <c r="O34" s="3">
+        <v>98.057188788128599</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
@@ -1694,22 +1498,15 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N35" s="4">
-        <v>3.882863579783511E-3</v>
-      </c>
-      <c r="O35" s="4">
-        <v>2.667409849898604E-2</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="S35" s="4">
-        <v>1.5782989537443979E-2</v>
-      </c>
-      <c r="T35" s="4">
-        <v>0.13096961870273999</v>
-      </c>
+      <c r="N35" s="3">
+        <v>37.344064303380051</v>
+      </c>
+      <c r="O35" s="3">
+        <v>94.679513602638082</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
@@ -1736,22 +1533,15 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="N36" s="4">
-        <v>3.8561259247562869E-3</v>
-      </c>
-      <c r="O36" s="4">
-        <v>2.6440087674392359E-2</v>
-      </c>
-      <c r="R36" s="2">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="S36" s="4">
-        <v>1.6161150956679471E-2</v>
-      </c>
-      <c r="T36" s="4">
-        <v>9.8910116886191432E-2</v>
-      </c>
+      <c r="N36" s="3">
+        <v>36.767038334707337</v>
+      </c>
+      <c r="O36" s="3">
+        <v>99.170370981038744</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
@@ -1778,22 +1568,15 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="N37" s="4">
-        <v>3.87087215101141E-3</v>
-      </c>
-      <c r="O37" s="4">
-        <v>2.8551800829002751E-2</v>
-      </c>
-      <c r="R37" s="2">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="S37" s="4">
-        <v>1.6175552026412521E-2</v>
-      </c>
-      <c r="T37" s="4">
-        <v>0.1171962586029224</v>
-      </c>
+      <c r="N37" s="3">
+        <v>36.918524319868091</v>
+      </c>
+      <c r="O37" s="3">
+        <v>95.645292662819472</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
@@ -1820,22 +1603,15 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="N38" s="4">
-        <v>3.8285427536956982E-3</v>
-      </c>
-      <c r="O38" s="4">
-        <v>2.6971365282784019E-2</v>
-      </c>
-      <c r="R38" s="2">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="S38" s="4">
-        <v>1.6247480776532298E-2</v>
-      </c>
-      <c r="T38" s="4">
-        <v>0.11807459840228821</v>
-      </c>
+      <c r="N38" s="3">
+        <v>37.062875103050288</v>
+      </c>
+      <c r="O38" s="3">
+        <v>96.004888705688373</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
@@ -1862,22 +1638,15 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="N39" s="4">
-        <v>3.816965740176077E-3</v>
-      </c>
-      <c r="O39" s="4">
-        <v>2.8085421339488811E-2</v>
-      </c>
-      <c r="R39" s="2">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="S39" s="4">
-        <v>1.6109127212988541E-2</v>
-      </c>
-      <c r="T39" s="4">
-        <v>0.1216451587450041</v>
-      </c>
+      <c r="N39" s="3">
+        <v>36.670706924979378</v>
+      </c>
+      <c r="O39" s="3">
+        <v>99.982415498763402</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
@@ -1904,22 +1673,15 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="N40" s="4">
-        <v>3.8379187546036348E-3</v>
-      </c>
-      <c r="O40" s="4">
-        <v>2.77635868504937E-2</v>
-      </c>
-      <c r="R40" s="2">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="S40" s="4">
-        <v>1.6239327934064421E-2</v>
-      </c>
-      <c r="T40" s="4">
-        <v>0.11534079371835559</v>
-      </c>
+      <c r="N40" s="3">
+        <v>37.035946001648803</v>
+      </c>
+      <c r="O40" s="3">
+        <v>94.632761747732886</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
@@ -1946,22 +1708,15 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="N41" s="4">
-        <v>3.8568270057973589E-3</v>
-      </c>
-      <c r="O41" s="4">
-        <v>2.7218575965366941E-2</v>
-      </c>
-      <c r="R41" s="2">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="S41" s="4">
-        <v>1.6571083881719569E-2</v>
-      </c>
-      <c r="T41" s="4">
-        <v>0.1085935293727698</v>
-      </c>
+      <c r="N41" s="3">
+        <v>36.448429513602633</v>
+      </c>
+      <c r="O41" s="3">
+        <v>102.96859027205279</v>
+      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
@@ -1988,22 +1743,15 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="N42" s="4">
-        <v>3.80889543350832E-3</v>
-      </c>
-      <c r="O42" s="4">
-        <v>2.9723421719144799E-2</v>
-      </c>
-      <c r="R42" s="2">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="S42" s="4">
-        <v>1.5704448452191721E-2</v>
-      </c>
-      <c r="T42" s="4">
-        <v>0.13299671153682549</v>
-      </c>
+      <c r="N42" s="3">
+        <v>36.609412613355317</v>
+      </c>
+      <c r="O42" s="3">
+        <v>101.4566611706513</v>
+      </c>
+      <c r="R42" s="2"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
     </row>
     <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
@@ -2030,22 +1778,15 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="N43" s="4">
-        <v>4.0074705160596091E-3</v>
-      </c>
-      <c r="O43" s="4">
-        <v>2.5739825124919659E-2</v>
-      </c>
-      <c r="R43" s="2">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="S43" s="4">
-        <v>1.6314337285846331E-2</v>
-      </c>
-      <c r="T43" s="4">
-        <v>0.1118793700198684</v>
-      </c>
+      <c r="N43" s="3">
+        <v>36.446411788953007</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100.60212695795551</v>
+      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
@@ -2072,22 +1813,15 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="N44" s="4">
-        <v>3.8453490871246292E-3</v>
-      </c>
-      <c r="O44" s="4">
-        <v>2.6779323254488101E-2</v>
-      </c>
-      <c r="R44" s="2">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="S44" s="4">
-        <v>1.6064023629028371E-2</v>
-      </c>
-      <c r="T44" s="4">
-        <v>0.113703116335843</v>
-      </c>
+      <c r="N44" s="3">
+        <v>36.864023083264627</v>
+      </c>
+      <c r="O44" s="3">
+        <v>94.975218466611707</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
     </row>
     <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
@@ -2114,22 +1848,15 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="N45" s="4">
-        <v>3.8696770321489972E-3</v>
-      </c>
-      <c r="O45" s="4">
-        <v>2.401601120272474E-2</v>
-      </c>
-      <c r="R45" s="2">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="S45" s="4">
-        <v>1.6279320023060501E-2</v>
-      </c>
-      <c r="T45" s="4">
-        <v>0.10513988367133389</v>
-      </c>
+      <c r="N45" s="3">
+        <v>36.659719703215167</v>
+      </c>
+      <c r="O45" s="3">
+        <v>98.89553173948886</v>
+      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
@@ -2156,22 +1883,15 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="N46" s="4">
-        <v>3.85987498298773E-3</v>
-      </c>
-      <c r="O46" s="4">
-        <v>2.8005137930539891E-2</v>
-      </c>
-      <c r="R46" s="2">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="S46" s="4">
-        <v>1.6301034879953109E-2</v>
-      </c>
-      <c r="T46" s="4">
-        <v>0.1091572296769589</v>
-      </c>
+      <c r="N46" s="3">
+        <v>37.18462695795548</v>
+      </c>
+      <c r="O46" s="3">
+        <v>95.435366859027212</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
@@ -2198,22 +1918,15 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="N47" s="4">
-        <v>3.709589710884737E-3</v>
-      </c>
-      <c r="O47" s="4">
-        <v>3.0798913894152791E-2</v>
-      </c>
-      <c r="R47" s="2">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="S47" s="4">
-        <v>1.627853153736044E-2</v>
-      </c>
-      <c r="T47" s="4">
-        <v>0.11316049752005</v>
-      </c>
+      <c r="N47" s="3">
+        <v>37.039721764220943</v>
+      </c>
+      <c r="O47" s="3">
+        <v>99.97206924979389</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
@@ -2240,22 +1953,15 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="N48" s="4">
-        <v>3.839143271601504E-3</v>
-      </c>
-      <c r="O48" s="4">
-        <v>2.8537236460197641E-2</v>
-      </c>
-      <c r="R48" s="2">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="S48" s="4">
-        <v>1.607312012214308E-2</v>
-      </c>
-      <c r="T48" s="4">
-        <v>0.12567574917072261</v>
-      </c>
+      <c r="N48" s="3">
+        <v>36.912061005770823</v>
+      </c>
+      <c r="O48" s="3">
+        <v>98.122258862324799</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
     </row>
     <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
@@ -2282,22 +1988,15 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="N49" s="4">
-        <v>3.7703139498748012E-3</v>
-      </c>
-      <c r="O49" s="4">
-        <v>2.8668062253393911E-2</v>
-      </c>
-      <c r="R49" s="2">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="S49" s="4">
-        <v>1.6257455911798901E-2</v>
-      </c>
-      <c r="T49" s="4">
-        <v>9.6955093798151093E-2</v>
-      </c>
+      <c r="N49" s="3">
+        <v>36.445286479802142</v>
+      </c>
+      <c r="O49" s="3">
+        <v>103.972473206925</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
     </row>
     <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
@@ -2324,22 +2023,15 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="N50" s="4">
-        <v>3.8507157867619509E-3</v>
-      </c>
-      <c r="O50" s="4">
-        <v>2.8005740654497211E-2</v>
-      </c>
-      <c r="R50" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="S50" s="4">
-        <v>1.5639946385829519E-2</v>
-      </c>
-      <c r="T50" s="4">
-        <v>0.15736444880638409</v>
-      </c>
+      <c r="N50" s="3">
+        <v>36.980179307502063</v>
+      </c>
+      <c r="O50" s="3">
+        <v>98.701129431162414</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
     </row>
     <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
@@ -2366,22 +2058,15 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="N51" s="4">
-        <v>3.8623685416919211E-3</v>
-      </c>
-      <c r="O51" s="4">
-        <v>2.612216900567654E-2</v>
-      </c>
-      <c r="R51" s="2">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="S51" s="4">
-        <v>1.5996401224504419E-2</v>
-      </c>
-      <c r="T51" s="4">
-        <v>0.12636430357300429</v>
-      </c>
+      <c r="N51" s="3">
+        <v>36.783514014839241</v>
+      </c>
+      <c r="O51" s="3">
+        <v>96.175688375927436</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
     </row>
     <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
@@ -2408,22 +2093,15 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="N52" s="4">
-        <v>3.721545626216185E-3</v>
-      </c>
-      <c r="O52" s="4">
-        <v>2.9210147704990919E-2</v>
-      </c>
-      <c r="R52" s="2">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="S52" s="4">
-        <v>1.5878225838000581E-2</v>
-      </c>
-      <c r="T52" s="4">
-        <v>0.1215619754010778</v>
-      </c>
+      <c r="N52" s="3">
+        <v>36.653353256389117</v>
+      </c>
+      <c r="O52" s="3">
+        <v>99.206611706512774</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
     </row>
     <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
@@ -2450,22 +2128,15 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="N53" s="4">
-        <v>3.7979591781253392E-3</v>
-      </c>
-      <c r="O53" s="4">
-        <v>2.8592664583893521E-2</v>
-      </c>
-      <c r="R53" s="2">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="S53" s="4">
-        <v>1.6188079271295189E-2</v>
-      </c>
-      <c r="T53" s="4">
-        <v>0.1160817583025565</v>
-      </c>
+      <c r="N53" s="3">
+        <v>36.971828112118708</v>
+      </c>
+      <c r="O53" s="3">
+        <v>97.537774113767512</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
     </row>
     <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
@@ -2492,22 +2163,15 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="N54" s="4">
-        <v>3.8286546026109719E-3</v>
-      </c>
-      <c r="O54" s="4">
-        <v>2.8166956626693759E-2</v>
-      </c>
-      <c r="R54" s="2">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="S54" s="4">
-        <v>1.6345134777465489E-2</v>
-      </c>
-      <c r="T54" s="4">
-        <v>0.1029572854855965</v>
-      </c>
+      <c r="N54" s="3">
+        <v>36.959134377576262</v>
+      </c>
+      <c r="O54" s="3">
+        <v>97.242390766694143</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
     </row>
     <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
@@ -2534,26 +2198,17 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="N55" s="4">
-        <v>3.7450634272971472E-3</v>
-      </c>
-      <c r="O55" s="4">
-        <v>2.8923390865649719E-2</v>
-      </c>
-      <c r="R55" s="2">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="S55" s="4">
-        <v>1.6471135066115201E-2</v>
-      </c>
-      <c r="T55" s="4">
-        <v>0.1009698025391584</v>
-      </c>
+      <c r="N55" s="3">
+        <v>37.075127782357796</v>
+      </c>
+      <c r="O55" s="3">
+        <v>95.80276999175598</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
     </row>
     <row r="56" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
     </row>
@@ -2583,25 +2238,17 @@
       <c r="M57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N57" s="3">
         <f>AVERAGE(N6:N55)</f>
-        <v>3.8367751082377033E-3</v>
-      </c>
-      <c r="O57" s="4">
+        <v>36.779713767518558</v>
+      </c>
+      <c r="O57" s="3">
         <f>AVERAGE(O6:O55)</f>
-        <v>2.7662021688572166E-2</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S57" s="4">
-        <f>AVERAGE(S6:S55)</f>
-        <v>1.614626931881985E-2</v>
-      </c>
-      <c r="T57" s="4">
-        <f>AVERAGE(T6:T55)</f>
-        <v>0.11467060983078378</v>
-      </c>
+        <v>98.50301813685077</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
     </row>
     <row r="58" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
@@ -2629,24 +2276,2084 @@
       <c r="M58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N58" s="3">
         <f>_xlfn.STDEV.S(N6:N55)</f>
+        <v>0.28406193497543586</v>
+      </c>
+      <c r="O58" s="3">
+        <f>_xlfn.STDEV.S(O6:O55)</f>
+        <v>3.052157271596871</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:U58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.9012656255087122E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.6872809770650489E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.6109829045150639E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.1048899798475439</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>2751.3154668401612</v>
+      </c>
+      <c r="P6" s="6">
+        <v>19879.300275957019</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <f>D6+1</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.8802144292124029E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.8297882858074969E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <f>I6+1</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.563627126254831E-2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.13546888842231469</v>
+      </c>
+      <c r="N7" s="2">
+        <f>N6+1</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="6">
+        <v>2795.920183462054</v>
+      </c>
+      <c r="P7" s="6">
+        <v>19937.019510946939</v>
+      </c>
+      <c r="S7" s="2">
+        <f>S6+1</f>
+        <v>2</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D55" si="0">D7+1</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.8304198092593668E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.6811164812730631E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ref="I8:I55" si="1">I7+1</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.58157073523255E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.1142932248575589</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8:N55" si="2">N7+1</f>
+        <v>3</v>
+      </c>
+      <c r="O8" s="6">
+        <v>2816.514806783076</v>
+      </c>
+      <c r="P8" s="6">
+        <v>21312.203288784422</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" ref="S8:S55" si="3">S7+1</f>
+        <v>3</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.6859332530850609E-3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.8402875125575131E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1.5758742281432869E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.14071396812482501</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O9" s="6">
+        <v>2908.1556610141029</v>
+      </c>
+      <c r="P9" s="6">
+        <v>18436.285530691741</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.80306349724318E-3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.5853134642315759E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1.637149109849112E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.1031937587770769</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O10" s="6">
+        <v>2747.7296754365339</v>
+      </c>
+      <c r="P10" s="6">
+        <v>21413.533894291471</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.768815482112625E-3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.0369313080958471E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1.6127391373465201E-2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.1079508210885281</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2786.0266297011408</v>
+      </c>
+      <c r="P11" s="6">
+        <v>24067.303004701142</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.8064013351161341E-3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.9039274741696479E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1.6412838125826359E-2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.11743866842578091</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O12" s="6">
+        <v>2860.0986087978508</v>
+      </c>
+      <c r="P12" s="6">
+        <v>18100.457564338481</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3.8383955338046928E-3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.7928201559299069E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1.6014825205546361E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.11366096366702839</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O13" s="6">
+        <v>2820.6891206178639</v>
+      </c>
+      <c r="P13" s="6">
+        <v>18606.75056057757</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3.8991542600385911E-3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.8141538016755889E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1.6610588248178359E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.1003431300845207</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O14" s="6">
+        <v>2804.7577470785759</v>
+      </c>
+      <c r="P14" s="6">
+        <v>20435.541195231701</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3.8535817048818829E-3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2.687925624265711E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1.582650151633572E-2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.1223908590248162</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O15" s="6">
+        <v>2846.3181549194078</v>
+      </c>
+      <c r="P15" s="6">
+        <v>18745.142595298861</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.8035737978991042E-3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.882085174650945E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1.624119763832153E-2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.1055733717274743</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O16" s="6">
+        <v>2729.4661581934179</v>
+      </c>
+      <c r="P16" s="6">
+        <v>20963.215614170589</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3.7016948072582652E-3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.975635506976828E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1.6294077337454329E-2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.10789844222542171</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O17" s="6">
+        <v>2873.198250503694</v>
+      </c>
+      <c r="P17" s="6">
+        <v>20044.675921961039</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3.7794792730085069E-3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.734510818016956E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1.619844048799382E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.12182370144466199</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O18" s="6">
+        <v>2784.923433143048</v>
+      </c>
+      <c r="P18" s="6">
+        <v>20167.62998938885</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3.9511753103124696E-3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.549298724019286E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1.5927566473349711E-2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.12746338319780059</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O19" s="6">
+        <v>2769.489528122901</v>
+      </c>
+      <c r="P19" s="6">
+        <v>22427.0902689053</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3.9310945414033054E-3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.4181809072906651E-2</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1.621237921114406E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.11959101595211551</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O20" s="6">
+        <v>2734.4755913196782</v>
+      </c>
+      <c r="P20" s="6">
+        <v>22649.39966762927</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3.8895802447439631E-3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2.5848474995463978E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1.5867098802281241E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.1107227811412525</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O21" s="6">
+        <v>2761.4872784419072</v>
+      </c>
+      <c r="P21" s="6">
+        <v>20747.24071289456</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.9347203993610304E-3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.6240046834724091E-2</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1.595629769592052E-2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.12543908817301461</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O22" s="6">
+        <v>2830.4225676292808</v>
+      </c>
+      <c r="P22" s="6">
+        <v>19534.767192075218</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.8073867233460409E-3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.8783177102295769E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1.6006224042350161E-2</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.1164852768663862</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O23" s="6">
+        <v>2818.5346118368029</v>
+      </c>
+      <c r="P23" s="6">
+        <v>18733.28445701813</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.905734568014658E-3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.481079967838417E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1.6360834613001751E-2</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.10981651424974891</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="O24" s="6">
+        <v>2790.8475822699802</v>
+      </c>
+      <c r="P24" s="6">
+        <v>19781.381474009399</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3.8327794613647959E-3</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2.6490374757372689E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1.6407409906681599E-2</v>
+      </c>
+      <c r="K25" s="4">
+        <v>9.685498052852648E-2</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O25" s="6">
+        <v>2872.954471574883</v>
+      </c>
+      <c r="P25" s="6">
+        <v>19001.253968166551</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3.7937332617988938E-3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2.8047402593543391E-2</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1.610766936205122E-2</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.1203116542243416</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="O26" s="6">
+        <v>2813.5428717092009</v>
+      </c>
+      <c r="P26" s="6">
+        <v>20033.881592612481</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3.8909347802066349E-3</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2.5780589083182689E-2</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1.6171577539000639E-2</v>
+      </c>
+      <c r="K27" s="4">
+        <v>9.6846918624473879E-2</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O27" s="6">
+        <v>2793.162925671591</v>
+      </c>
+      <c r="P27" s="6">
+        <v>20764.240758629949</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3.876071983761956E-3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.5570233238790499E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1.6469307139596479E-2</v>
+      </c>
+      <c r="K28" s="4">
+        <v>9.9294825538304349E-2</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="O28" s="6">
+        <v>2844.724563448623</v>
+      </c>
+      <c r="P28" s="6">
+        <v>18608.491235191399</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3.940080044885135E-3</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2.8819020744889162E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1.6326498022964309E-2</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.10396777762012741</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O29" s="6">
+        <v>2800.184770114171</v>
+      </c>
+      <c r="P29" s="6">
+        <v>19541.60186346541</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3.783030765446027E-3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.0057788823361881E-2</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1.6331724261563828E-2</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.1111102762331896</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="O30" s="6">
+        <v>2852.8315330758901</v>
+      </c>
+      <c r="P30" s="6">
+        <v>20057.57150664875</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3.8163153264058592E-3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.036462570137707E-2</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1.612475782152779E-2</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.1054306324877396</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="O31" s="6">
+        <v>2811.9626480691732</v>
+      </c>
+      <c r="P31" s="6">
+        <v>19789.37496433848</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3.9225142717788566E-3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2.6176243985086022E-2</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1.635713944125199E-2</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.1113545336587044</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="O32" s="6">
+        <v>2814.98721126595</v>
+      </c>
+      <c r="P32" s="6">
+        <v>21969.625647884481</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3.825211961441108E-3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2.77923234996077E-2</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1.6230239658519819E-2</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.11437719732276989</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="O33" s="6">
+        <v>2722.5007904633981</v>
+      </c>
+      <c r="P33" s="6">
+        <v>20823.757872397578</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3.7196619024681249E-3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3.1133483508790579E-2</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1.596093424628351E-2</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.1241265577353385</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="O34" s="6">
+        <v>2708.7365557924782</v>
+      </c>
+      <c r="P34" s="6">
+        <v>22194.27438851578</v>
+      </c>
+      <c r="S34" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3.882863579783511E-3</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2.667409849898604E-2</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1.5782989537443979E-2</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.13096961870273999</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O35" s="6">
+        <v>2723.2309117024852</v>
+      </c>
+      <c r="P35" s="6">
+        <v>24073.346456816649</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+    </row>
+    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3.8561259247562869E-3</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2.6440087674392359E-2</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1.6161150956679471E-2</v>
+      </c>
+      <c r="K36" s="4">
+        <v>9.8910116886191432E-2</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="O36" s="6">
+        <v>2909.8427649093351</v>
+      </c>
+      <c r="P36" s="6">
+        <v>19091.54063498992</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+    </row>
+    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E37" s="4">
+        <v>3.87087215101141E-3</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2.8551800829002751E-2</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1.6175552026412521E-2</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.1171962586029224</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="O37" s="6">
+        <v>2712.659900453325</v>
+      </c>
+      <c r="P37" s="6">
+        <v>21226.3378337139</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+    </row>
+    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3.8285427536956982E-3</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2.6971365282784019E-2</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1.6247480776532298E-2</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0.11807459840228821</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="O38" s="6">
+        <v>2720.085528844862</v>
+      </c>
+      <c r="P38" s="6">
+        <v>22865.581371390192</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+    </row>
+    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3.816965740176077E-3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2.8085421339488811E-2</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1.6109127212988541E-2</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0.1216451587450041</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="O39" s="6">
+        <v>2756.3396734217599</v>
+      </c>
+      <c r="P39" s="6">
+        <v>20106.671660107451</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+    </row>
+    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3.8379187546036348E-3</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2.77635868504937E-2</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1.6239327934064421E-2</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0.11534079371835559</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="O40" s="6">
+        <v>2728.4035858126249</v>
+      </c>
+      <c r="P40" s="6">
+        <v>21445.669562592338</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+    </row>
+    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3.8568270057973589E-3</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2.7218575965366941E-2</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1.6571083881719569E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0.1085935293727698</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="O41" s="6">
+        <v>2829.280086182001</v>
+      </c>
+      <c r="P41" s="6">
+        <v>19197.85933532572</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+    </row>
+    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E42" s="4">
+        <v>3.80889543350832E-3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2.9723421719144799E-2</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1.5704448452191721E-2</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0.13299671153682549</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="O42" s="6">
+        <v>2801.8913818502351</v>
+      </c>
+      <c r="P42" s="6">
+        <v>20957.105210611149</v>
+      </c>
+      <c r="S42" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+    </row>
+    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E43" s="4">
+        <v>4.0074705160596091E-3</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2.5739825124919659E-2</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1.6314337285846331E-2</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.1118793700198684</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="O43" s="6">
+        <v>2788.810872850906</v>
+      </c>
+      <c r="P43" s="6">
+        <v>20041.886200201479</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+    </row>
+    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E44" s="4">
+        <v>3.8453490871246292E-3</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2.6779323254488101E-2</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1.6064023629028371E-2</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.113703116335843</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="O44" s="6">
+        <v>2780.954049513095</v>
+      </c>
+      <c r="P44" s="6">
+        <v>20819.04202397582</v>
+      </c>
+      <c r="S44" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+    </row>
+    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3.8696770321489972E-3</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2.401601120272474E-2</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1.6279320023060501E-2</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.10513988367133389</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="O45" s="6">
+        <v>2771.7454039791801</v>
+      </c>
+      <c r="P45" s="6">
+        <v>18532.250698723979</v>
+      </c>
+      <c r="S45" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+    </row>
+    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3.85987498298773E-3</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2.8005137930539891E-2</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1.6301034879953109E-2</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.1091572296769589</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="O46" s="6">
+        <v>2708.4504297011422</v>
+      </c>
+      <c r="P46" s="6">
+        <v>23686.219996239091</v>
+      </c>
+      <c r="S46" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+    </row>
+    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3.709589710884737E-3</v>
+      </c>
+      <c r="F47" s="4">
+        <v>3.0798913894152791E-2</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1.627853153736044E-2</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.11316049752005</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="O47" s="6">
+        <v>2785.591941957689</v>
+      </c>
+      <c r="P47" s="6">
+        <v>20339.207754801879</v>
+      </c>
+      <c r="S47" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+    </row>
+    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3.839143271601504E-3</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2.8537236460197641E-2</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1.607312012214308E-2</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0.12567574917072261</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="O48" s="6">
+        <v>2796.967869795164</v>
+      </c>
+      <c r="P48" s="6">
+        <v>21233.687309872399</v>
+      </c>
+      <c r="S48" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+    </row>
+    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3.7703139498748012E-3</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2.8668062253393911E-2</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1.6257455911798901E-2</v>
+      </c>
+      <c r="K49" s="4">
+        <v>9.6955093798151093E-2</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="O49" s="6">
+        <v>2811.2847812793821</v>
+      </c>
+      <c r="P49" s="6">
+        <v>20436.507023237071</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+    </row>
+    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E50" s="4">
+        <v>3.8507157867619509E-3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2.8005740654497211E-2</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1.5639946385829519E-2</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.15736444880638409</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="O50" s="6">
+        <v>2747.171475067159</v>
+      </c>
+      <c r="P50" s="6">
+        <v>20469.848072397581</v>
+      </c>
+      <c r="S50" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+    </row>
+    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3.8623685416919211E-3</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2.612216900567654E-2</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1.5996401224504419E-2</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0.12636430357300429</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="O51" s="6">
+        <v>2797.032860308932</v>
+      </c>
+      <c r="P51" s="6">
+        <v>19272.444562659501</v>
+      </c>
+      <c r="S51" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+    </row>
+    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3.721545626216185E-3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2.9210147704990919E-2</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="J52" s="4">
+        <v>1.5878225838000581E-2</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.1215619754010778</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="O52" s="6">
+        <v>2878.9499288112829</v>
+      </c>
+      <c r="P52" s="6">
+        <v>19508.318994157151</v>
+      </c>
+      <c r="S52" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+    </row>
+    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3.7979591781253392E-3</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2.8592664583893521E-2</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1.6188079271295189E-2</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.1160817583025565</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="O53" s="6">
+        <v>2875.5334581766292</v>
+      </c>
+      <c r="P53" s="6">
+        <v>18314.352568502349</v>
+      </c>
+      <c r="S53" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+    </row>
+    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D54" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3.8286546026109719E-3</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2.8166956626693759E-2</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J54" s="4">
+        <v>1.6345134777465489E-2</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0.1029572854855965</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="O54" s="6">
+        <v>2833.5135086299529</v>
+      </c>
+      <c r="P54" s="6">
+        <v>20009.35848287441</v>
+      </c>
+      <c r="S54" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+    </row>
+    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D55" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3.7450634272971472E-3</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2.8923390865649719E-2</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J55" s="4">
+        <v>1.6471135066115201E-2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.1009698025391584</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="O55" s="6">
+        <v>2766.636799899261</v>
+      </c>
+      <c r="P55" s="6">
+        <v>21149.49601558092</v>
+      </c>
+      <c r="S55" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+    </row>
+    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4">
+        <f>AVERAGE(E6:E55)</f>
+        <v>3.8367751082377033E-3</v>
+      </c>
+      <c r="F57" s="4">
+        <f>AVERAGE(F6:F55)</f>
+        <v>2.7662021688572166E-2</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="4">
+        <f>AVERAGE(J6:J55)</f>
+        <v>1.614626931881985E-2</v>
+      </c>
+      <c r="K57" s="4">
+        <f>AVERAGE(K6:K55)</f>
+        <v>0.11467060983078378</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3">
+        <f>AVERAGE(O6:O55)</f>
+        <v>2795.8067322088637</v>
+      </c>
+      <c r="P57" s="3">
+        <f>AVERAGE(P6:P55)</f>
+        <v>20430.860565709867</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="e">
+        <f>AVERAGE(T6:T55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U57" s="3" t="e">
+        <f>AVERAGE(U6:U55)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="4">
+        <f>_xlfn.STDEV.S(E6:E55)</f>
         <v>6.7713886455263164E-5</v>
       </c>
-      <c r="O58" s="4">
+      <c r="F58" s="4">
+        <f>_xlfn.STDEV.S(F6:F55)</f>
+        <v>1.6698090965107128E-3</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="4">
+        <f>_xlfn.STDEV.S(J6:J55)</f>
+        <v>2.3516650963507311E-4</v>
+      </c>
+      <c r="K58" s="4">
+        <f>_xlfn.STDEV.S(K6:K55)</f>
+        <v>1.2167636195887331E-2</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <f>_xlfn.STDEV.S(O6:O55)</f>
-        <v>1.6698090965107128E-3</v>
-      </c>
-      <c r="R58" s="2" t="s">
+        <v>52.124985588514342</v>
+      </c>
+      <c r="P58" s="3">
+        <f>_xlfn.STDEV.S(P6:P55)</f>
+        <v>1459.6214842411971</v>
+      </c>
+      <c r="S58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="4">
-        <f>_xlfn.STDEV.S(S6:S55)</f>
-        <v>2.3516650963507311E-4</v>
-      </c>
-      <c r="T58" s="4">
+      <c r="T58" s="3" t="e">
         <f>_xlfn.STDEV.S(T6:T55)</f>
-        <v>1.2167636195887331E-2</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U58" s="3" t="e">
+        <f>_xlfn.STDEV.S(U6:U55)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/underground/tests on superdataset/test-18.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-18.xlsx
@@ -2298,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,17 +2349,17 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="4:21" x14ac:dyDescent="0.25">
@@ -2393,8 +2393,12 @@
       <c r="S6" s="2">
         <v>1</v>
       </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
+      <c r="T6" s="6">
+        <v>2633.3208061927448</v>
+      </c>
+      <c r="U6" s="6">
+        <v>19557.393605107081</v>
+      </c>
     </row>
     <row r="7" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
@@ -2431,8 +2435,12 @@
         <f>S6+1</f>
         <v>2</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="T7" s="6">
+        <v>2623.0225845914251</v>
+      </c>
+      <c r="U7" s="6">
+        <v>19990.693030807251</v>
+      </c>
     </row>
     <row r="8" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
@@ -2469,8 +2477,12 @@
         <f t="shared" ref="S8:S55" si="3">S7+1</f>
         <v>3</v>
       </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="T8" s="6">
+        <v>2562.2775165078779</v>
+      </c>
+      <c r="U8" s="6">
+        <v>15999.08581532125</v>
+      </c>
     </row>
     <row r="9" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
@@ -2507,8 +2519,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="T9" s="6">
+        <v>2631.5040958409668</v>
+      </c>
+      <c r="U9" s="6">
+        <v>18917.543865733111</v>
+      </c>
     </row>
     <row r="10" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
@@ -2545,8 +2561,12 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="T10" s="6">
+        <v>2692.930641278856</v>
+      </c>
+      <c r="U10" s="6">
+        <v>16577.048596869849</v>
+      </c>
     </row>
     <row r="11" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
@@ -2583,8 +2603,12 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="T11" s="6">
+        <v>2557.7899852326859</v>
+      </c>
+      <c r="U11" s="6">
+        <v>19688.772040691929</v>
+      </c>
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
@@ -2621,8 +2645,12 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
+      <c r="T12" s="6">
+        <v>2617.633189318432</v>
+      </c>
+      <c r="U12" s="6">
+        <v>15722.513464250411</v>
+      </c>
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
@@ -2659,8 +2687,12 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="T13" s="6">
+        <v>2641.766428691828</v>
+      </c>
+      <c r="U13" s="6">
+        <v>17199.097031795711</v>
+      </c>
     </row>
     <row r="14" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
@@ -2697,8 +2729,12 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="T14" s="6">
+        <v>2625.2937611212901</v>
+      </c>
+      <c r="U14" s="6">
+        <v>16349.83344118616</v>
+      </c>
     </row>
     <row r="15" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D15" s="2">
@@ -2735,8 +2771,12 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="T15" s="6">
+        <v>2621.2920639794802</v>
+      </c>
+      <c r="U15" s="6">
+        <v>17045.300424711699</v>
+      </c>
     </row>
     <row r="16" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D16" s="2">
@@ -2773,8 +2813,12 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
+      <c r="T16" s="6">
+        <v>2653.770129479663</v>
+      </c>
+      <c r="U16" s="6">
+        <v>17741.054614991761</v>
+      </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="2">
@@ -2811,8 +2855,12 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
+      <c r="T17" s="6">
+        <v>2585.8263740014659</v>
+      </c>
+      <c r="U17" s="6">
+        <v>20023.339615321249</v>
+      </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="2">
@@ -2849,8 +2897,12 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
+      <c r="T18" s="6">
+        <v>2636.7211455661409</v>
+      </c>
+      <c r="U18" s="6">
+        <v>19363.00006293245</v>
+      </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="2">
@@ -2887,8 +2939,12 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
+      <c r="T19" s="6">
+        <v>2581.044178050568</v>
+      </c>
+      <c r="U19" s="6">
+        <v>19520.276354859969</v>
+      </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
@@ -2925,8 +2981,12 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
+      <c r="T20" s="6">
+        <v>2554.9881472700631</v>
+      </c>
+      <c r="U20" s="6">
+        <v>21413.612476112019</v>
+      </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="2">
@@ -2963,8 +3023,12 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
+      <c r="T21" s="6">
+        <v>2650.4024006779041</v>
+      </c>
+      <c r="U21" s="6">
+        <v>19738.449150576609</v>
+      </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="2">
@@ -3001,8 +3065,12 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
+      <c r="T22" s="6">
+        <v>2574.3033948882371</v>
+      </c>
+      <c r="U22" s="6">
+        <v>20198.14439110379</v>
+      </c>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="2">
@@ -3039,8 +3107,12 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="T23" s="6">
+        <v>2637.106099835104</v>
+      </c>
+      <c r="U23" s="6">
+        <v>16616.67504200988</v>
+      </c>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="2">
@@ -3077,8 +3149,12 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
+      <c r="T24" s="6">
+        <v>2619.566897306705</v>
+      </c>
+      <c r="U24" s="6">
+        <v>18418.54336853377</v>
+      </c>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
@@ -3115,8 +3191,12 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
+      <c r="T25" s="6">
+        <v>2614.3695442286548</v>
+      </c>
+      <c r="U25" s="6">
+        <v>16700.7422446458</v>
+      </c>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
@@ -3153,8 +3233,12 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
+      <c r="T26" s="6">
+        <v>2506.512673323562</v>
+      </c>
+      <c r="U26" s="6">
+        <v>20873.905325205931</v>
+      </c>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
@@ -3191,8 +3275,12 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
+      <c r="T27" s="6">
+        <v>2621.2442284353242</v>
+      </c>
+      <c r="U27" s="6">
+        <v>17254.999875617788</v>
+      </c>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
@@ -3229,8 +3317,12 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
+      <c r="T28" s="6">
+        <v>2612.317656742397</v>
+      </c>
+      <c r="U28" s="6">
+        <v>17747.80737462933</v>
+      </c>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
@@ -3267,8 +3359,12 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
+      <c r="T29" s="6">
+        <v>2629.4661200256501</v>
+      </c>
+      <c r="U29" s="6">
+        <v>17695.553836573308</v>
+      </c>
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
@@ -3305,8 +3401,12 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
+      <c r="T30" s="6">
+        <v>2616.4537317698791</v>
+      </c>
+      <c r="U30" s="6">
+        <v>19034.950818945639</v>
+      </c>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
@@ -3343,8 +3443,12 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
+      <c r="T31" s="6">
+        <v>2627.5547772993768</v>
+      </c>
+      <c r="U31" s="6">
+        <v>17406.170866886321</v>
+      </c>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
@@ -3381,8 +3485,12 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
+      <c r="T32" s="6">
+        <v>2522.5584077867352</v>
+      </c>
+      <c r="U32" s="6">
+        <v>21556.720870510711</v>
+      </c>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
@@ -3419,8 +3527,12 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
+      <c r="T33" s="6">
+        <v>2598.8558351960419</v>
+      </c>
+      <c r="U33" s="6">
+        <v>14441.527813179569</v>
+      </c>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
@@ -3457,8 +3569,12 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
+      <c r="T34" s="6">
+        <v>2586.7048119457681</v>
+      </c>
+      <c r="U34" s="6">
+        <v>20551.026403624379</v>
+      </c>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D35" s="2">
@@ -3495,8 +3611,12 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
+      <c r="T35" s="6">
+        <v>2597.8604816233051</v>
+      </c>
+      <c r="U35" s="6">
+        <v>19443.572341680399</v>
+      </c>
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D36" s="2">
@@ -3533,8 +3653,12 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
+      <c r="T36" s="6">
+        <v>2622.3834474716018</v>
+      </c>
+      <c r="U36" s="6">
+        <v>18776.747939209221</v>
+      </c>
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="2">
@@ -3571,8 +3695,12 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
+      <c r="T37" s="6">
+        <v>2607.7707871381458</v>
+      </c>
+      <c r="U37" s="6">
+        <v>20097.111128006589</v>
+      </c>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
@@ -3609,8 +3737,12 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
+      <c r="T38" s="6">
+        <v>2606.065271619641</v>
+      </c>
+      <c r="U38" s="6">
+        <v>18072.31838352554</v>
+      </c>
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D39" s="2">
@@ -3647,8 +3779,12 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
+      <c r="T39" s="6">
+        <v>2533.436627995603</v>
+      </c>
+      <c r="U39" s="6">
+        <v>21461.360838879729</v>
+      </c>
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D40" s="2">
@@ -3685,8 +3821,12 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
+      <c r="T40" s="6">
+        <v>2644.229455917919</v>
+      </c>
+      <c r="U40" s="6">
+        <v>18340.077622570021</v>
+      </c>
     </row>
     <row r="41" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D41" s="2">
@@ -3723,8 +3863,12 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
+      <c r="T41" s="6">
+        <v>2650.2989286735069</v>
+      </c>
+      <c r="U41" s="6">
+        <v>17992.436431466231</v>
+      </c>
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D42" s="2">
@@ -3761,8 +3905,12 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
+      <c r="T42" s="6">
+        <v>2550.919724569439</v>
+      </c>
+      <c r="U42" s="6">
+        <v>21274.5026446458</v>
+      </c>
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D43" s="2">
@@ -3799,8 +3947,12 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
+      <c r="T43" s="6">
+        <v>2600.337567515573</v>
+      </c>
+      <c r="U43" s="6">
+        <v>17951.192873805601</v>
+      </c>
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D44" s="2">
@@ -3837,8 +3989,12 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
+      <c r="T44" s="6">
+        <v>2514.256530633932</v>
+      </c>
+      <c r="U44" s="6">
+        <v>21900.50452372323</v>
+      </c>
     </row>
     <row r="45" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D45" s="2">
@@ -3875,8 +4031,12 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
+      <c r="T45" s="6">
+        <v>2581.1991677903989</v>
+      </c>
+      <c r="U45" s="6">
+        <v>17845.88409505766</v>
+      </c>
     </row>
     <row r="46" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D46" s="2">
@@ -3913,8 +4073,12 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
+      <c r="T46" s="6">
+        <v>2652.5763060278491</v>
+      </c>
+      <c r="U46" s="6">
+        <v>15320.273485337721</v>
+      </c>
     </row>
     <row r="47" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D47" s="2">
@@ -3951,8 +4115,12 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
+      <c r="T47" s="6">
+        <v>2607.0824455661409</v>
+      </c>
+      <c r="U47" s="6">
+        <v>19994.099071499171</v>
+      </c>
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D48" s="2">
@@ -3989,8 +4157,12 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
+      <c r="T48" s="6">
+        <v>2525.653428746793</v>
+      </c>
+      <c r="U48" s="6">
+        <v>21202.051433937399</v>
+      </c>
     </row>
     <row r="49" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D49" s="2">
@@ -4027,8 +4199,12 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
+      <c r="T49" s="6">
+        <v>2502.4855078416999</v>
+      </c>
+      <c r="U49" s="6">
+        <v>19895.930556342661</v>
+      </c>
     </row>
     <row r="50" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D50" s="2">
@@ -4065,8 +4241,12 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
+      <c r="T50" s="6">
+        <v>2675.2527138512269</v>
+      </c>
+      <c r="U50" s="6">
+        <v>17917.24706820428</v>
+      </c>
     </row>
     <row r="51" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
@@ -4103,8 +4283,12 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
+      <c r="T51" s="6">
+        <v>2584.7000348479301</v>
+      </c>
+      <c r="U51" s="6">
+        <v>19425.496404448098</v>
+      </c>
     </row>
     <row r="52" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D52" s="2">
@@ -4141,8 +4325,12 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
+      <c r="T52" s="6">
+        <v>2648.1508444118731</v>
+      </c>
+      <c r="U52" s="6">
+        <v>19329.794047116971</v>
+      </c>
     </row>
     <row r="53" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D53" s="2">
@@ -4179,8 +4367,12 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
+      <c r="T53" s="6">
+        <v>2610.530478142176</v>
+      </c>
+      <c r="U53" s="6">
+        <v>17008.09715897858</v>
+      </c>
     </row>
     <row r="54" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D54" s="2">
@@ -4217,8 +4409,12 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
+      <c r="T54" s="6">
+        <v>2649.4472732869181</v>
+      </c>
+      <c r="U54" s="6">
+        <v>16297.1240121911</v>
+      </c>
     </row>
     <row r="55" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
@@ -4255,8 +4451,12 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
+      <c r="T55" s="6">
+        <v>2590.6133612495419</v>
+      </c>
+      <c r="U55" s="6">
+        <v>19958.653771499179</v>
+      </c>
     </row>
     <row r="56" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E56" s="5"/>
@@ -4301,13 +4501,13 @@
       <c r="S57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T57" s="3" t="e">
+      <c r="T57" s="3">
         <f>AVERAGE(T6:T55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U57" s="3" t="e">
+        <v>2603.8369602301204</v>
+      </c>
+      <c r="U57" s="3">
         <f>AVERAGE(U6:U55)</f>
-        <v>#DIV/0!</v>
+        <v>18656.965153097201</v>
       </c>
     </row>
     <row r="58" spans="4:21" x14ac:dyDescent="0.25">
@@ -4347,13 +4547,13 @@
       <c r="S58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3" t="e">
+      <c r="T58" s="3">
         <f>_xlfn.STDEV.S(T6:T55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U58" s="3" t="e">
+        <v>43.947994565861713</v>
+      </c>
+      <c r="U58" s="3">
         <f>_xlfn.STDEV.S(U6:U55)</f>
-        <v>#DIV/0!</v>
+        <v>1804.2119419778155</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/underground/tests on superdataset/test-18.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-18.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>Random Forest-100 (superdataset-24.csv)</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Hybrid 3mig (superdataset-24 3mig.csv) test 20%</t>
+  </si>
+  <si>
+    <t>Hybrid 3mig (superdataset-24 3mig.csv) test 0.2%</t>
   </si>
 </sst>
 </file>
@@ -2296,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:U58"/>
+  <dimension ref="D4:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
+      <selection activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,9 +2315,11 @@
     <col min="16" max="16" width="11.140625" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" customWidth="1"/>
     <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2331,8 +2336,12 @@
         <v>5</v>
       </c>
       <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -2361,8 +2370,15 @@
       <c r="U5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
         <v>1</v>
       </c>
@@ -2399,8 +2415,17 @@
       <c r="U6" s="6">
         <v>19557.393605107081</v>
       </c>
-    </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>2668.3355430338011</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>19940.315787716401</v>
+      </c>
+    </row>
+    <row r="7" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <f>D6+1</f>
         <v>2</v>
@@ -2441,8 +2466,18 @@
       <c r="U7" s="6">
         <v>19990.693030807251</v>
       </c>
-    </row>
-    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X7" s="2">
+        <f>X6+1</f>
+        <v>2</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>2834.410861995053</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>18177.95532629843</v>
+      </c>
+    </row>
+    <row r="8" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <f t="shared" ref="D8:D55" si="0">D7+1</f>
         <v>3</v>
@@ -2483,8 +2518,18 @@
       <c r="U8" s="6">
         <v>15999.08581532125</v>
       </c>
-    </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X8" s="2">
+        <f t="shared" ref="X8:X55" si="4">X7+1</f>
+        <v>3</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>2701.6704767106339</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>18336.2511991756</v>
+      </c>
+    </row>
+    <row r="9" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2525,8 +2570,18 @@
       <c r="U9" s="6">
         <v>18917.543865733111</v>
       </c>
-    </row>
-    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X9" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>2668.3570988664469</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>19435.558231657051</v>
+      </c>
+    </row>
+    <row r="10" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2567,8 +2622,18 @@
       <c r="U10" s="6">
         <v>16577.048596869849</v>
       </c>
-    </row>
-    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X10" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2553.602565519373</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>21869.931179142619</v>
+      </c>
+    </row>
+    <row r="11" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2609,8 +2674,18 @@
       <c r="U11" s="6">
         <v>19688.772040691929</v>
       </c>
-    </row>
-    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X11" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>2781.19116760099</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>18622.125689117889</v>
+      </c>
+    </row>
+    <row r="12" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2651,8 +2726,18 @@
       <c r="U12" s="6">
         <v>15722.513464250411</v>
       </c>
-    </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X12" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>2690.94543213108</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>18493.581374278641</v>
+      </c>
+    </row>
+    <row r="13" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2693,8 +2778,18 @@
       <c r="U13" s="6">
         <v>17199.097031795711</v>
       </c>
-    </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X13" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>2689.3153316158291</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>19979.131535366861</v>
+      </c>
+    </row>
+    <row r="14" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2735,8 +2830,18 @@
       <c r="U14" s="6">
         <v>16349.83344118616</v>
       </c>
-    </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X14" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>2689.5574200948072</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>19479.781991838408</v>
+      </c>
+    </row>
+    <row r="15" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2777,8 +2882,18 @@
       <c r="U15" s="6">
         <v>17045.300424711699</v>
       </c>
-    </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X15" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>2713.9625515869739</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>17232.922166611701</v>
+      </c>
+    </row>
+    <row r="16" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2819,8 +2934,18 @@
       <c r="U16" s="6">
         <v>17741.054614991761</v>
       </c>
-    </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X16" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>2645.225906574608</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>18754.717214756802</v>
+      </c>
+    </row>
+    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2861,8 +2986,18 @@
       <c r="U17" s="6">
         <v>20023.339615321249</v>
       </c>
-    </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X17" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>2604.2904462283591</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>20285.698022588618</v>
+      </c>
+    </row>
+    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2903,8 +3038,18 @@
       <c r="U18" s="6">
         <v>19363.00006293245</v>
       </c>
-    </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X18" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>2657.4151059769169</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>18441.5995856554</v>
+      </c>
+    </row>
+    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2945,8 +3090,18 @@
       <c r="U19" s="6">
         <v>19520.276354859969</v>
       </c>
-    </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X19" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>2617.452067353669</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>21486.354897609239</v>
+      </c>
+    </row>
+    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2987,8 +3142,18 @@
       <c r="U20" s="6">
         <v>21413.612476112019</v>
       </c>
-    </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X20" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>2700.8117078936521</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>18462.2320776587</v>
+      </c>
+    </row>
+    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3029,8 +3194,18 @@
       <c r="U21" s="6">
         <v>19738.449150576609</v>
       </c>
-    </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X21" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>2718.8539918590268</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>17624.33096240725</v>
+      </c>
+    </row>
+    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3071,8 +3246,18 @@
       <c r="U22" s="6">
         <v>20198.14439110379</v>
       </c>
-    </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X22" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>2625.768823742786</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>19736.324065127781</v>
+      </c>
+    </row>
+    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3113,8 +3298,18 @@
       <c r="U23" s="6">
         <v>16616.67504200988</v>
       </c>
-    </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X23" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>2729.6871686521022</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>17932.433490601808</v>
+      </c>
+    </row>
+    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3155,8 +3350,18 @@
       <c r="U24" s="6">
         <v>18418.54336853377</v>
       </c>
-    </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X24" s="2">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>2689.140176566365</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>17851.612355152509</v>
+      </c>
+    </row>
+    <row r="25" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3197,8 +3402,18 @@
       <c r="U25" s="6">
         <v>16700.7422446458</v>
       </c>
-    </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X25" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>2778.6260309769168</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>19570.185345836759</v>
+      </c>
+    </row>
+    <row r="26" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3239,8 +3454,18 @@
       <c r="U26" s="6">
         <v>20873.905325205931</v>
       </c>
-    </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X26" s="2">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>2723.6843055234949</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>18031.98922201154</v>
+      </c>
+    </row>
+    <row r="27" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3281,8 +3506,18 @@
       <c r="U27" s="6">
         <v>17254.999875617788</v>
       </c>
-    </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X27" s="2">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>2704.382549567189</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>19823.116327864791</v>
+      </c>
+    </row>
+    <row r="28" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3323,8 +3558,18 @@
       <c r="U28" s="6">
         <v>17747.80737462933</v>
       </c>
-    </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X28" s="2">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>2756.5750502885398</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>18337.596235696619</v>
+      </c>
+    </row>
+    <row r="29" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3365,8 +3610,18 @@
       <c r="U29" s="6">
         <v>17695.553836573308</v>
       </c>
-    </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X29" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>2614.4778175597689</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>21108.624565045338</v>
+      </c>
+    </row>
+    <row r="30" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3407,8 +3662,18 @@
       <c r="U30" s="6">
         <v>19034.950818945639</v>
       </c>
-    </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X30" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>2719.7829572959599</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>19610.526349958782</v>
+      </c>
+    </row>
+    <row r="31" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3449,8 +3714,18 @@
       <c r="U31" s="6">
         <v>17406.170866886321</v>
       </c>
-    </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X31" s="2">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>2611.520098392416</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>20199.980145589441</v>
+      </c>
+    </row>
+    <row r="32" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3491,8 +3766,18 @@
       <c r="U32" s="6">
         <v>21556.720870510711</v>
       </c>
-    </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X32" s="2">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>2660.1467444352838</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>20466.487340725471</v>
+      </c>
+    </row>
+    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3533,8 +3818,18 @@
       <c r="U33" s="6">
         <v>14441.527813179569</v>
       </c>
-    </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X33" s="2">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>2608.2133829142622</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>19143.479895548229</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3575,8 +3870,18 @@
       <c r="U34" s="6">
         <v>20551.026403624379</v>
       </c>
-    </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X34" s="2">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>2613.1481866034628</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>20389.910147815332</v>
+      </c>
+    </row>
+    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3617,8 +3922,18 @@
       <c r="U35" s="6">
         <v>19443.572341680399</v>
       </c>
-    </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X35" s="2">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>2729.9038287716412</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>18803.64307543281</v>
+      </c>
+    </row>
+    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3659,8 +3974,18 @@
       <c r="U36" s="6">
         <v>18776.747939209221</v>
       </c>
-    </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X36" s="2">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>2668.7440043075021</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>19564.254356306679</v>
+      </c>
+    </row>
+    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3701,8 +4026,18 @@
       <c r="U37" s="6">
         <v>20097.111128006589</v>
       </c>
-    </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X37" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>2765.012200288541</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>17226.189699999999</v>
+      </c>
+    </row>
+    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3743,8 +4078,18 @@
       <c r="U38" s="6">
         <v>18072.31838352554</v>
       </c>
-    </row>
-    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X38" s="2">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>2784.9777225474031</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>18597.40097996702</v>
+      </c>
+    </row>
+    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3785,8 +4130,18 @@
       <c r="U39" s="6">
         <v>21461.360838879729</v>
       </c>
-    </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X39" s="2">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>2657.6935497114591</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>19898.025002555649</v>
+      </c>
+    </row>
+    <row r="40" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3827,8 +4182,18 @@
       <c r="U40" s="6">
         <v>18340.077622570021</v>
       </c>
-    </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X40" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>2774.092132543281</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>17500.314099917559</v>
+      </c>
+    </row>
+    <row r="41" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3869,8 +4234,18 @@
       <c r="U41" s="6">
         <v>17992.436431466231</v>
       </c>
-    </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X41" s="2">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>2681.622149072547</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>18859.352767106349</v>
+      </c>
+    </row>
+    <row r="42" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3911,8 +4286,18 @@
       <c r="U42" s="6">
         <v>21274.5026446458</v>
       </c>
-    </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X42" s="2">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>2682.9262550494641</v>
+      </c>
+      <c r="Z42" s="6">
+        <v>18486.806644847478</v>
+      </c>
+    </row>
+    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3953,8 +4338,18 @@
       <c r="U43" s="6">
         <v>17951.192873805601</v>
       </c>
-    </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X43" s="2">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>2693.167332460841</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>17324.340615910962</v>
+      </c>
+    </row>
+    <row r="44" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3995,8 +4390,18 @@
       <c r="U44" s="6">
         <v>21900.50452372323</v>
       </c>
-    </row>
-    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X44" s="2">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>2691.454381986809</v>
+      </c>
+      <c r="Z44" s="6">
+        <v>18645.78528375928</v>
+      </c>
+    </row>
+    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4037,8 +4442,18 @@
       <c r="U45" s="6">
         <v>17845.88409505766</v>
       </c>
-    </row>
-    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X45" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>2658.814458676834</v>
+      </c>
+      <c r="Z45" s="6">
+        <v>18216.719954987631</v>
+      </c>
+    </row>
+    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4079,8 +4494,18 @@
       <c r="U46" s="6">
         <v>15320.273485337721</v>
       </c>
-    </row>
-    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X46" s="2">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="Y46" s="6">
+        <v>2615.0562671475682</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>20684.551342456711</v>
+      </c>
+    </row>
+    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4121,8 +4546,18 @@
       <c r="U47" s="6">
         <v>19994.099071499171</v>
       </c>
-    </row>
-    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X47" s="2">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="Y47" s="6">
+        <v>2644.638872691673</v>
+      </c>
+      <c r="Z47" s="6">
+        <v>17939.363273784009</v>
+      </c>
+    </row>
+    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4163,8 +4598,18 @@
       <c r="U48" s="6">
         <v>21202.051433937399</v>
       </c>
-    </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X48" s="2">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="Y48" s="6">
+        <v>2764.0307530502891</v>
+      </c>
+      <c r="Z48" s="6">
+        <v>17395.204909975269</v>
+      </c>
+    </row>
+    <row r="49" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4205,8 +4650,18 @@
       <c r="U49" s="6">
         <v>19895.930556342661</v>
       </c>
-    </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X49" s="2">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="Y49" s="6">
+        <v>2745.8884736191262</v>
+      </c>
+      <c r="Z49" s="6">
+        <v>18201.250997114588</v>
+      </c>
+    </row>
+    <row r="50" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4247,8 +4702,18 @@
       <c r="U50" s="6">
         <v>17917.24706820428</v>
       </c>
-    </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X50" s="2">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="Y50" s="6">
+        <v>2771.9636661170648</v>
+      </c>
+      <c r="Z50" s="6">
+        <v>16212.929060428691</v>
+      </c>
+    </row>
+    <row r="51" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4289,8 +4754,18 @@
       <c r="U51" s="6">
         <v>19425.496404448098</v>
       </c>
-    </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X51" s="2">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="Y51" s="6">
+        <v>2711.0038430956301</v>
+      </c>
+      <c r="Z51" s="6">
+        <v>19295.59382464963</v>
+      </c>
+    </row>
+    <row r="52" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4331,8 +4806,18 @@
       <c r="U52" s="6">
         <v>19329.794047116971</v>
       </c>
-    </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X52" s="2">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="Y52" s="6">
+        <v>2642.1142307502059</v>
+      </c>
+      <c r="Z52" s="6">
+        <v>18297.153064880458</v>
+      </c>
+    </row>
+    <row r="53" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4373,8 +4858,18 @@
       <c r="U53" s="6">
         <v>17008.09715897858</v>
       </c>
-    </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X53" s="2">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="Y53" s="6">
+        <v>2701.1371862737019</v>
+      </c>
+      <c r="Z53" s="6">
+        <v>19751.76517312448</v>
+      </c>
+    </row>
+    <row r="54" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4415,8 +4910,18 @@
       <c r="U54" s="6">
         <v>16297.1240121911</v>
       </c>
-    </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X54" s="2">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="Y54" s="6">
+        <v>2778.1966963107998</v>
+      </c>
+      <c r="Z54" s="6">
+        <v>17288.726676751849</v>
+      </c>
+    </row>
+    <row r="55" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4457,14 +4962,24 @@
       <c r="U55" s="6">
         <v>19958.653771499179</v>
       </c>
-    </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X55" s="2">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="Y55" s="6">
+        <v>2696.049452926628</v>
+      </c>
+      <c r="Z55" s="6">
+        <v>18832.99981343776</v>
+      </c>
+    </row>
+    <row r="56" spans="4:26" x14ac:dyDescent="0.25">
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D57" s="2" t="s">
         <v>3</v>
       </c>
@@ -4509,8 +5024,19 @@
         <f>AVERAGE(U6:U55)</f>
         <v>18656.965153097201</v>
       </c>
-    </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="3">
+        <f>AVERAGE(Y6:Y55)</f>
+        <v>2692.5807684991755</v>
+      </c>
+      <c r="Z57" s="3">
+        <f>AVERAGE(Z6:Z55)</f>
+        <v>18916.942466924978</v>
+      </c>
+    </row>
+    <row r="58" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D58" s="2" t="s">
         <v>4</v>
       </c>
@@ -4554,6 +5080,17 @@
       <c r="U58" s="3">
         <f>_xlfn.STDEV.S(U6:U55)</f>
         <v>1804.2119419778155</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3">
+        <f>_xlfn.STDEV.S(Y6:Y55)</f>
+        <v>59.051025056141057</v>
+      </c>
+      <c r="Z58" s="3">
+        <f>_xlfn.STDEV.S(Z6:Z55)</f>
+        <v>1199.6583571072497</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/underground/tests on superdataset/test-18.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-18.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mae" sheetId="1" r:id="rId1"/>
     <sheet name="mse" sheetId="2" r:id="rId2"/>
+    <sheet name="r2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
   <si>
     <t>Random Forest-100 (superdataset-24.csv)</t>
   </si>
@@ -50,6 +51,12 @@
   </si>
   <si>
     <t>Hybrid 3mig (superdataset-24 3mig.csv) test 0.2%</t>
+  </si>
+  <si>
+    <t>train (R2)</t>
+  </si>
+  <si>
+    <t>test (R2)</t>
   </si>
 </sst>
 </file>
@@ -404,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E58"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
-      <selection activeCell="AA49" sqref="AA49"/>
+    <sheetView topLeftCell="H25" workbookViewId="0">
+      <selection activeCell="X59" sqref="X59:X60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5097,4 +5104,663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.91674965606328518</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.41865481479112993</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.91662836413391258</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.41210315792372543</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C55" si="0">C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.91489374854208771</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.37349382585140262</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.9179718452745893</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.36497913160234158</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.91749802011473403</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.35425807036740548</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.91521027682556311</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.42320774970929909</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.91500589062971482</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.41681088493508539</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.91798473101443356</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.38346122783214492</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.91719097345680278</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.39056416952125128</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.91587940697306547</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.37845940890745139</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.91660470785204606</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.4291801637251399</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.91258083463588713</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.44705496932774619</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.91929141987271945</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.35528633728632808</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.91446787102524096</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4550027743195163</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.91454986537073446</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.4140300140183707</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.91376073747995268</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.43169068986400971</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.91518188406348921</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.40094238655350939</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.91493019291344302</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.39267919439608012</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.91563121732443498</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.38572013805779343</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.91773165442710813</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.38473101368170481</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.9177091603404175</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.37480854878139552</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.91497542739021487</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.40341346598812078</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.91288243481060105</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.42614942460100058</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.91725644299011833</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.39629742607011359</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.9148759539994844</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.4502914764564756</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.91678622769515294</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.38842104967516289</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.91466036529433836</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.39157194431333242</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.91718669404871811</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.40554870539091431</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.9132905690155908</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.42285303533815077</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.91575489294291046</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.37645344715615092</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.91795557567381492</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.36772915212961871</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.91510660905137842</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.38995263407565273</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.91576625669633493</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.39959890054089942</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.91209299014335043</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.45364619716090399</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.91701078366971889</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.39197471705611298</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.91597329151734264</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.3668016480528129</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.91512740825651906</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.39628461256361852</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.91473923728198114</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.41515535442898149</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.92016495157705191</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.2998262978905829</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.91482996105848169</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.40981672540456071</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.91746710160711187</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.3647611651907382</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.91520760190949124</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.41982998640320562</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.91665084412482056</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.3680528717488325</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.91493635664586281</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.42906569543776218</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.91546809558539488</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.41725197036721878</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.9145235748615701</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.39860229396178121</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.91822709537347291</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.3811138190167358</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.91658804181314613</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.35460928371796668</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.91607303013344088</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.39728715348673588</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.91815368464161695</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.37763994819718932</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3">
+        <f>AVERAGE(D6:D55)</f>
+        <v>0.91594367916285369</v>
+      </c>
+      <c r="E57" s="3">
+        <f>AVERAGE(E6:E55)</f>
+        <v>0.39694238146548327</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3">
+        <f>_xlfn.STDEV.S(D6:D55)</f>
+        <v>1.6841027687637684E-3</v>
+      </c>
+      <c r="E58" s="3">
+        <f>_xlfn.STDEV.S(E6:E55)</f>
+        <v>2.9606486921015984E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/migforecasting/underground/tests on superdataset/test-18.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-18.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
   <si>
     <t>Random Forest-100 (superdataset-24.csv)</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>test (R2)</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (superdataset-24 3mig.csv)</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:Z58"/>
   <sheetViews>
-    <sheetView topLeftCell="H25" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="X59" sqref="X59:X60"/>
     </sheetView>
   </sheetViews>
@@ -5108,10 +5111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E58"/>
+  <dimension ref="C4:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5120,13 +5123,17 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -5134,8 +5141,15 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -5145,8 +5159,17 @@
       <c r="E6" s="3">
         <v>0.41865481479112993</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.91529847554967936</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.42588977386786853</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -5157,8 +5180,18 @@
       <c r="E7" s="3">
         <v>0.41210315792372543</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <f>H6+1</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.91776781568706989</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.32672459152587358</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C55" si="0">C7+1</f>
         <v>3</v>
@@ -5169,8 +5202,18 @@
       <c r="E8" s="3">
         <v>0.37349382585140262</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H55" si="1">H7+1</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.91736529268335198</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.39305319061713601</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5181,8 +5224,18 @@
       <c r="E9" s="3">
         <v>0.36497913160234158</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.91726933174660674</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.36137192070380869</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5193,8 +5246,18 @@
       <c r="E10" s="3">
         <v>0.35425807036740548</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.91465758539092912</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.4360008253248091</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5205,8 +5268,18 @@
       <c r="E11" s="3">
         <v>0.42320774970929909</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.91449831011799632</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.45222693741982462</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5217,8 +5290,18 @@
       <c r="E12" s="3">
         <v>0.41681088493508539</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.91414809898161109</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.47347627403826531</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5229,8 +5312,18 @@
       <c r="E13" s="3">
         <v>0.38346122783214492</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.91569633885431467</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.39860012115686072</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5241,8 +5334,18 @@
       <c r="E14" s="3">
         <v>0.39056416952125128</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.91492435255108051</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.40285767034346021</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5253,8 +5356,18 @@
       <c r="E15" s="3">
         <v>0.37845940890745139</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.915353039907433</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.43128877209692978</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5265,8 +5378,18 @@
       <c r="E16" s="3">
         <v>0.4291801637251399</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.91283226452834554</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.45239256810272049</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5277,8 +5400,18 @@
       <c r="E17" s="3">
         <v>0.44705496932774619</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.91333221101393003</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.44994763866982268</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5289,8 +5422,18 @@
       <c r="E18" s="3">
         <v>0.35528633728632808</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.91501182870527775</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.4052669997788485</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5301,8 +5444,18 @@
       <c r="E19" s="3">
         <v>0.4550027743195163</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.91574683364043574</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.42161480939445128</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5313,8 +5466,18 @@
       <c r="E20" s="3">
         <v>0.4140300140183707</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.9167789678965288</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.41957890917064689</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5325,8 +5488,18 @@
       <c r="E21" s="3">
         <v>0.43169068986400971</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.91607570895627644</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.43121587333997341</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5337,8 +5510,18 @@
       <c r="E22" s="3">
         <v>0.40094238655350939</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.9182998195399602</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.4301471329122234</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5349,8 +5532,18 @@
       <c r="E23" s="3">
         <v>0.39267919439608012</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.91971052567461498</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.34366445352146913</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5361,8 +5554,18 @@
       <c r="E24" s="3">
         <v>0.38572013805779343</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.91628904980658255</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.40838028927680969</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5373,8 +5576,18 @@
       <c r="E25" s="3">
         <v>0.38473101368170481</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.91539105427593093</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.43388871416333807</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5385,8 +5598,18 @@
       <c r="E26" s="3">
         <v>0.37480854878139552</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.91729691443339234</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.39885901102331639</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5397,8 +5620,18 @@
       <c r="E27" s="3">
         <v>0.40341346598812078</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.91562734127761392</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.42847906801375057</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5409,8 +5642,18 @@
       <c r="E28" s="3">
         <v>0.42614942460100058</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.91859282957759125</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.40001462318106401</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5421,8 +5664,18 @@
       <c r="E29" s="3">
         <v>0.39629742607011359</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.91623991029791729</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.37479425999407517</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5433,8 +5686,18 @@
       <c r="E30" s="3">
         <v>0.4502914764564756</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.91413043776337888</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.42744917665947929</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5445,8 +5708,18 @@
       <c r="E31" s="3">
         <v>0.38842104967516289</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.91764149982127441</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.36033403935828329</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5457,8 +5730,18 @@
       <c r="E32" s="3">
         <v>0.39157194431333242</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.91975379953456449</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.39439828739842198</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5469,8 +5752,18 @@
       <c r="E33" s="3">
         <v>0.40554870539091431</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.91442487674391737</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.45582445587332548</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5481,8 +5774,18 @@
       <c r="E34" s="3">
         <v>0.42285303533815077</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.91882259085463724</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.38059890611659192</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5493,8 +5796,18 @@
       <c r="E35" s="3">
         <v>0.37645344715615092</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.91576556587661373</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.40321441314409301</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5505,8 +5818,18 @@
       <c r="E36" s="3">
         <v>0.36772915212961871</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.91546858231655925</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.40455606393688442</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5517,8 +5840,18 @@
       <c r="E37" s="3">
         <v>0.38995263407565273</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.91380621134053674</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.45763623463761138</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5529,8 +5862,18 @@
       <c r="E38" s="3">
         <v>0.39959890054089942</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.91597364994412867</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.39692413213036237</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5541,8 +5884,18 @@
       <c r="E39" s="3">
         <v>0.45364619716090399</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.91789634971059464</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.41053055654319098</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5553,8 +5906,18 @@
       <c r="E40" s="3">
         <v>0.39197471705611298</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.91473534492372899</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.42755211549127159</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5565,8 +5928,18 @@
       <c r="E41" s="3">
         <v>0.3668016480528129</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.91945077870688952</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.37544668211124249</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5577,8 +5950,18 @@
       <c r="E42" s="3">
         <v>0.39628461256361852</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.91535231374862791</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.43403797928606408</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5589,8 +5972,18 @@
       <c r="E43" s="3">
         <v>0.41515535442898149</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.91636119594462473</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.38679059304236002</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5601,8 +5994,18 @@
       <c r="E44" s="3">
         <v>0.2998262978905829</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.91553856024729152</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.38980060514350029</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5613,8 +6016,18 @@
       <c r="E45" s="3">
         <v>0.40981672540456071</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.91471597847732555</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.3984326098299783</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5625,8 +6038,18 @@
       <c r="E46" s="3">
         <v>0.3647611651907382</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.91656077070159081</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.40528697187827961</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5637,8 +6060,18 @@
       <c r="E47" s="3">
         <v>0.41982998640320562</v>
       </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.91811115942654509</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.3888355631398912</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5649,8 +6082,18 @@
       <c r="E48" s="3">
         <v>0.3680528717488325</v>
       </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.91613099406910048</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.40586910104732421</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5661,8 +6104,18 @@
       <c r="E49" s="3">
         <v>0.42906569543776218</v>
       </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.91524496322010396</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.40445226217250518</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5673,8 +6126,18 @@
       <c r="E50" s="3">
         <v>0.41725197036721878</v>
       </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.91564728829108921</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.3973897198239027</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5685,8 +6148,18 @@
       <c r="E51" s="3">
         <v>0.39860229396178121</v>
       </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.91484190264216991</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.44021507212478661</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5697,8 +6170,18 @@
       <c r="E52" s="3">
         <v>0.3811138190167358</v>
       </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.91430230020380754</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0.43483662994365851</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5709,8 +6192,18 @@
       <c r="E53" s="3">
         <v>0.35460928371796668</v>
       </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.91796633373898762</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.41656848075107578</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5721,8 +6214,18 @@
       <c r="E54" s="3">
         <v>0.39728715348673588</v>
       </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.91577816510433441</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0.42343711939963241</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5733,8 +6236,18 @@
       <c r="E55" s="3">
         <v>0.37763994819718932</v>
       </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H55" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.91583887803936903</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0.39584131153273822</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
@@ -5746,8 +6259,19 @@
         <f>AVERAGE(E6:E55)</f>
         <v>0.39694238146548327</v>
       </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
+        <f>AVERAGE(I6:I55)</f>
+        <v>0.91608928784972532</v>
+      </c>
+      <c r="J57" s="3">
+        <f>AVERAGE(J6:J55)</f>
+        <v>0.41031987020307598</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
@@ -5758,6 +6282,17 @@
       <c r="E58" s="3">
         <f>_xlfn.STDEV.S(E6:E55)</f>
         <v>2.9606486921015984E-2</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
+        <f>_xlfn.STDEV.S(I6:I55)</f>
+        <v>1.640112824859133E-3</v>
+      </c>
+      <c r="J58" s="3">
+        <f>_xlfn.STDEV.S(J6:J55)</f>
+        <v>2.945749706780652E-2</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/underground/tests on superdataset/test-18.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-18.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
   <si>
     <t>Random Forest-100 (superdataset-24.csv)</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Random Forest-100 (superdataset-24 3mig.csv)</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (superdataset-24 3mig 2Y.csv)</t>
   </si>
 </sst>
 </file>
@@ -5111,10 +5114,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J58"/>
+  <dimension ref="C4:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5123,7 +5126,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5132,8 +5135,12 @@
         <v>12</v>
       </c>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -5148,8 +5155,15 @@
       <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -5168,8 +5182,17 @@
       <c r="J6" s="3">
         <v>0.42588977386786853</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.91484594607381897</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.40331810439083332</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -5190,8 +5213,18 @@
       <c r="J7" s="3">
         <v>0.32672459152587358</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <f>M6+1</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.91667794975123895</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.43020733919834531</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C55" si="0">C7+1</f>
         <v>3</v>
@@ -5212,8 +5245,18 @@
       <c r="J8" s="3">
         <v>0.39305319061713601</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <f t="shared" ref="M8:M55" si="2">M7+1</f>
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.91571373111051513</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.41061397673470079</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5234,8 +5277,18 @@
       <c r="J9" s="3">
         <v>0.36137192070380869</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.91396390107515846</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.41138880396830019</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5256,8 +5309,18 @@
       <c r="J10" s="3">
         <v>0.4360008253248091</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.91477552297645726</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.42060480731108701</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5278,8 +5341,18 @@
       <c r="J11" s="3">
         <v>0.45222693741982462</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.91382568808394726</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.4211635870948931</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5300,8 +5373,18 @@
       <c r="J12" s="3">
         <v>0.47347627403826531</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.91678753156962245</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.40076581070785361</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5322,8 +5405,18 @@
       <c r="J13" s="3">
         <v>0.39860012115686072</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.91576700913013875</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.40037216802098358</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5344,8 +5437,18 @@
       <c r="J14" s="3">
         <v>0.40285767034346021</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.91629778085011704</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.41710724468493471</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5366,8 +5469,18 @@
       <c r="J15" s="3">
         <v>0.43128877209692978</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.91531995687080647</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.40644823918019751</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5388,8 +5501,18 @@
       <c r="J16" s="3">
         <v>0.45239256810272049</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.91508993717462273</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.42371180495287841</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5410,8 +5533,18 @@
       <c r="J17" s="3">
         <v>0.44994763866982268</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.91701218012669916</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.35730168245153249</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5432,8 +5565,18 @@
       <c r="J18" s="3">
         <v>0.4052669997788485</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.9169857547334499</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.37567610931786072</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5454,8 +5597,18 @@
       <c r="J19" s="3">
         <v>0.42161480939445128</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.9163667044504995</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.3499284852728487</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5476,8 +5629,18 @@
       <c r="J20" s="3">
         <v>0.41957890917064689</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.91554859111808162</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.38895611419692833</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5498,8 +5661,18 @@
       <c r="J21" s="3">
         <v>0.43121587333997341</v>
       </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.91400113283412043</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.38858738304692808</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5520,8 +5693,18 @@
       <c r="J22" s="3">
         <v>0.4301471329122234</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.91494649913581561</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.41813423426112328</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5542,8 +5725,18 @@
       <c r="J23" s="3">
         <v>0.34366445352146913</v>
       </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.91862013761439443</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.34851832729537569</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5564,8 +5757,18 @@
       <c r="J24" s="3">
         <v>0.40838028927680969</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.91904839331541011</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.37308622757158549</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5586,8 +5789,18 @@
       <c r="J25" s="3">
         <v>0.43388871416333807</v>
       </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.91594097757019866</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.38722401672688689</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5608,8 +5821,18 @@
       <c r="J26" s="3">
         <v>0.39885901102331639</v>
       </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.92005262613207539</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.38915628706909428</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5630,8 +5853,18 @@
       <c r="J27" s="3">
         <v>0.42847906801375057</v>
       </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.91837667706163739</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.38469967380290437</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5652,8 +5885,18 @@
       <c r="J28" s="3">
         <v>0.40001462318106401</v>
       </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.91519590454594602</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.39888228116720859</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5674,8 +5917,18 @@
       <c r="J29" s="3">
         <v>0.37479425999407517</v>
       </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.91764578331319779</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.36131962232278469</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5696,8 +5949,18 @@
       <c r="J30" s="3">
         <v>0.42744917665947929</v>
       </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.91596873400574697</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.39691588478809248</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5718,8 +5981,18 @@
       <c r="J31" s="3">
         <v>0.36033403935828329</v>
       </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.91641544032332634</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.39881906517000559</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5740,8 +6013,18 @@
       <c r="J32" s="3">
         <v>0.39439828739842198</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.91718401128277638</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.38697986038763471</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5762,8 +6045,18 @@
       <c r="J33" s="3">
         <v>0.45582445587332548</v>
       </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.91431860944516252</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.41001950594048059</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5784,8 +6077,18 @@
       <c r="J34" s="3">
         <v>0.38059890611659192</v>
       </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.91402482133323393</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.39437206374319189</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5806,8 +6109,18 @@
       <c r="J35" s="3">
         <v>0.40321441314409301</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.91467658667899387</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.4454616877559745</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5828,8 +6141,18 @@
       <c r="J36" s="3">
         <v>0.40455606393688442</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.91377918955119264</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.44003922301779042</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5850,8 +6173,18 @@
       <c r="J37" s="3">
         <v>0.45763623463761138</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.91463797687703963</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.39341116856419422</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5872,8 +6205,18 @@
       <c r="J38" s="3">
         <v>0.39692413213036237</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.9172809112516408</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.34003429378544819</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5894,8 +6237,18 @@
       <c r="J39" s="3">
         <v>0.41053055654319098</v>
       </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.91567609942069617</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.37609375561764952</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5916,8 +6269,18 @@
       <c r="J40" s="3">
         <v>0.42755211549127159</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.91449227287901691</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.40884290123165667</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5938,8 +6301,18 @@
       <c r="J41" s="3">
         <v>0.37544668211124249</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.91416950909439165</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.39484564368256192</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5960,8 +6333,18 @@
       <c r="J42" s="3">
         <v>0.43403797928606408</v>
       </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0.91536719185468263</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.4405499570392416</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5982,8 +6365,18 @@
       <c r="J43" s="3">
         <v>0.38679059304236002</v>
       </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0.91576897088313913</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.3687152609541301</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6004,8 +6397,18 @@
       <c r="J44" s="3">
         <v>0.38980060514350029</v>
       </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.9147998660208444</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.40257104356507312</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6026,8 +6429,18 @@
       <c r="J45" s="3">
         <v>0.3984326098299783</v>
       </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.91424161135204685</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.41426389125770458</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6048,8 +6461,18 @@
       <c r="J46" s="3">
         <v>0.40528697187827961</v>
       </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.91408621853011629</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.44162951455098748</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6070,8 +6493,18 @@
       <c r="J47" s="3">
         <v>0.3888355631398912</v>
       </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.91410209538498743</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.40804586444538848</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6092,8 +6525,18 @@
       <c r="J48" s="3">
         <v>0.40586910104732421</v>
       </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.91586147783740102</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0.39836986921977269</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6114,8 +6557,18 @@
       <c r="J49" s="3">
         <v>0.40445226217250518</v>
       </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.91677789000881449</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0.39996472523342508</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6136,8 +6589,18 @@
       <c r="J50" s="3">
         <v>0.3973897198239027</v>
       </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.91708593158818164</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0.38912587901636991</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6158,8 +6621,18 @@
       <c r="J51" s="3">
         <v>0.44021507212478661</v>
       </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.91625575276340765</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0.44732877335927668</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6180,8 +6653,18 @@
       <c r="J52" s="3">
         <v>0.43483662994365851</v>
       </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.91852446230503537</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0.3380688335154195</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6202,8 +6685,18 @@
       <c r="J53" s="3">
         <v>0.41656848075107578</v>
       </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0.91486079051840807</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0.43483910889518212</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6224,8 +6717,18 @@
       <c r="J54" s="3">
         <v>0.42343711939963241</v>
       </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0.91394752193381767</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0.42935014232565699</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6246,8 +6749,18 @@
       <c r="J55" s="3">
         <v>0.39584131153273822</v>
       </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0.91717594991159113</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0.41452494778909632</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
@@ -6270,8 +6783,19 @@
         <f>AVERAGE(J6:J55)</f>
         <v>0.41031987020307598</v>
       </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
+        <f>AVERAGE(N6:N55)</f>
+        <v>0.91580572419307349</v>
+      </c>
+      <c r="O57" s="3">
+        <f>AVERAGE(O6:O55)</f>
+        <v>0.3996071039119895</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
@@ -6293,6 +6817,17 @@
       <c r="J58" s="3">
         <f>_xlfn.STDEV.S(J6:J55)</f>
         <v>2.945749706780652E-2</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
+        <f>_xlfn.STDEV.S(N6:N55)</f>
+        <v>1.5188559427630813E-3</v>
+      </c>
+      <c r="O58" s="3">
+        <f>_xlfn.STDEV.S(O6:O55)</f>
+        <v>2.681351017293333E-2</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/underground/tests on superdataset/test-18.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-18.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>Random Forest-100 (superdataset-24.csv)</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Random Forest-100 (superdataset-24 3mig 2Y.csv)</t>
+  </si>
+  <si>
+    <t>RF-100 (superdataset-24 3mig.csv) size of 2Y</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
@@ -2314,7 +2317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:Z58"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X59" sqref="X59:X60"/>
     </sheetView>
   </sheetViews>
@@ -5114,10 +5117,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:O58"/>
+  <dimension ref="C4:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5126,7 +5129,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5136,11 +5139,15 @@
       </c>
       <c r="J4" s="1"/>
       <c r="M4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="R4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -5162,8 +5169,15 @@
       <c r="O5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -5186,13 +5200,22 @@
         <v>1</v>
       </c>
       <c r="N6" s="3">
+        <v>0.91340869996178564</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.35962953778405538</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
         <v>0.91484594607381897</v>
       </c>
-      <c r="O6" s="3">
+      <c r="T6" s="3">
         <v>0.40331810439083332</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -5218,13 +5241,23 @@
         <v>2</v>
       </c>
       <c r="N7" s="3">
+        <v>0.91412736713647624</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.31130414951001822</v>
+      </c>
+      <c r="R7" s="2">
+        <f>R6+1</f>
+        <v>2</v>
+      </c>
+      <c r="S7" s="3">
         <v>0.91667794975123895</v>
       </c>
-      <c r="O7" s="3">
+      <c r="T7" s="3">
         <v>0.43020733919834531</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C55" si="0">C7+1</f>
         <v>3</v>
@@ -5250,13 +5283,23 @@
         <v>3</v>
       </c>
       <c r="N8" s="3">
+        <v>0.90912875757528377</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.45885034479721171</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8:R55" si="3">R7+1</f>
+        <v>3</v>
+      </c>
+      <c r="S8" s="3">
         <v>0.91571373111051513</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <v>0.41061397673470079</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5282,13 +5325,23 @@
         <v>4</v>
       </c>
       <c r="N9" s="3">
+        <v>0.91565542971313596</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.33633265761295328</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>0.91396390107515846</v>
       </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
         <v>0.41138880396830019</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5314,13 +5367,23 @@
         <v>5</v>
       </c>
       <c r="N10" s="3">
+        <v>0.91650190013630728</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.35528296420754468</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>0.91477552297645726</v>
       </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
         <v>0.42060480731108701</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5346,13 +5409,23 @@
         <v>6</v>
       </c>
       <c r="N11" s="3">
+        <v>0.91419308732927684</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.35943153817061407</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S11" s="3">
         <v>0.91382568808394726</v>
       </c>
-      <c r="O11" s="3">
+      <c r="T11" s="3">
         <v>0.4211635870948931</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5378,13 +5451,23 @@
         <v>7</v>
       </c>
       <c r="N12" s="3">
+        <v>0.91068169101902174</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.37601163446220037</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S12" s="3">
         <v>0.91678753156962245</v>
       </c>
-      <c r="O12" s="3">
+      <c r="T12" s="3">
         <v>0.40076581070785361</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5410,13 +5493,23 @@
         <v>8</v>
       </c>
       <c r="N13" s="3">
+        <v>0.91043310950570444</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.41630845950325812</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="S13" s="3">
         <v>0.91576700913013875</v>
       </c>
-      <c r="O13" s="3">
+      <c r="T13" s="3">
         <v>0.40037216802098358</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5442,13 +5535,23 @@
         <v>9</v>
       </c>
       <c r="N14" s="3">
+        <v>0.91331446512726089</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.35478116543898081</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="S14" s="3">
         <v>0.91629778085011704</v>
       </c>
-      <c r="O14" s="3">
+      <c r="T14" s="3">
         <v>0.41710724468493471</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5474,13 +5577,23 @@
         <v>10</v>
       </c>
       <c r="N15" s="3">
+        <v>0.91072837877505441</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.43823305418082431</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="S15" s="3">
         <v>0.91531995687080647</v>
       </c>
-      <c r="O15" s="3">
+      <c r="T15" s="3">
         <v>0.40644823918019751</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5506,13 +5619,23 @@
         <v>11</v>
       </c>
       <c r="N16" s="3">
+        <v>0.91515257017113993</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.35184489365960803</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="S16" s="3">
         <v>0.91508993717462273</v>
       </c>
-      <c r="O16" s="3">
+      <c r="T16" s="3">
         <v>0.42371180495287841</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5538,13 +5661,23 @@
         <v>12</v>
       </c>
       <c r="N17" s="3">
+        <v>0.9107174539671461</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.36969333976529151</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="S17" s="3">
         <v>0.91701218012669916</v>
       </c>
-      <c r="O17" s="3">
+      <c r="T17" s="3">
         <v>0.35730168245153249</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5570,13 +5703,23 @@
         <v>13</v>
       </c>
       <c r="N18" s="3">
+        <v>0.91332542296532082</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.37948545332479527</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="S18" s="3">
         <v>0.9169857547334499</v>
       </c>
-      <c r="O18" s="3">
+      <c r="T18" s="3">
         <v>0.37567610931786072</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5602,13 +5745,23 @@
         <v>14</v>
       </c>
       <c r="N19" s="3">
+        <v>0.9118783333899112</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.41645716616559331</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="S19" s="3">
         <v>0.9163667044504995</v>
       </c>
-      <c r="O19" s="3">
+      <c r="T19" s="3">
         <v>0.3499284852728487</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5634,13 +5787,23 @@
         <v>15</v>
       </c>
       <c r="N20" s="3">
+        <v>0.91221655045561056</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.41134613306511941</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="S20" s="3">
         <v>0.91554859111808162</v>
       </c>
-      <c r="O20" s="3">
+      <c r="T20" s="3">
         <v>0.38895611419692833</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5666,13 +5829,23 @@
         <v>16</v>
       </c>
       <c r="N21" s="3">
+        <v>0.91320835376654808</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.36877492449729993</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>0.91400113283412043</v>
       </c>
-      <c r="O21" s="3">
+      <c r="T21" s="3">
         <v>0.38858738304692808</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5698,13 +5871,23 @@
         <v>17</v>
       </c>
       <c r="N22" s="3">
+        <v>0.9104106798240168</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.36821008438198061</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="S22" s="3">
         <v>0.91494649913581561</v>
       </c>
-      <c r="O22" s="3">
+      <c r="T22" s="3">
         <v>0.41813423426112328</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5730,13 +5913,23 @@
         <v>18</v>
       </c>
       <c r="N23" s="3">
+        <v>0.91320737359037529</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.39575510563990962</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="S23" s="3">
         <v>0.91862013761439443</v>
       </c>
-      <c r="O23" s="3">
+      <c r="T23" s="3">
         <v>0.34851832729537569</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5762,13 +5955,23 @@
         <v>19</v>
       </c>
       <c r="N24" s="3">
+        <v>0.91441638665723113</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.38975932834371402</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="S24" s="3">
         <v>0.91904839331541011</v>
       </c>
-      <c r="O24" s="3">
+      <c r="T24" s="3">
         <v>0.37308622757158549</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5794,13 +5997,23 @@
         <v>20</v>
       </c>
       <c r="N25" s="3">
+        <v>0.91248530527894034</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.41124739212079692</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="S25" s="3">
         <v>0.91594097757019866</v>
       </c>
-      <c r="O25" s="3">
+      <c r="T25" s="3">
         <v>0.38722401672688689</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5826,13 +6039,23 @@
         <v>21</v>
       </c>
       <c r="N26" s="3">
+        <v>0.91349203723346739</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.38425242765280071</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="S26" s="3">
         <v>0.92005262613207539</v>
       </c>
-      <c r="O26" s="3">
+      <c r="T26" s="3">
         <v>0.38915628706909428</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5858,13 +6081,23 @@
         <v>22</v>
       </c>
       <c r="N27" s="3">
+        <v>0.91324254782579795</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.37917847069817401</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="S27" s="3">
         <v>0.91837667706163739</v>
       </c>
-      <c r="O27" s="3">
+      <c r="T27" s="3">
         <v>0.38469967380290437</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5890,13 +6123,23 @@
         <v>23</v>
       </c>
       <c r="N28" s="3">
+        <v>0.91672706062247722</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.33654793251971649</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="S28" s="3">
         <v>0.91519590454594602</v>
       </c>
-      <c r="O28" s="3">
+      <c r="T28" s="3">
         <v>0.39888228116720859</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5922,13 +6165,23 @@
         <v>24</v>
       </c>
       <c r="N29" s="3">
+        <v>0.91328720489173421</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.38953730802563702</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>0.91764578331319779</v>
       </c>
-      <c r="O29" s="3">
+      <c r="T29" s="3">
         <v>0.36131962232278469</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5954,13 +6207,23 @@
         <v>25</v>
       </c>
       <c r="N30" s="3">
+        <v>0.91466662691974054</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.35000069471261669</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="S30" s="3">
         <v>0.91596873400574697</v>
       </c>
-      <c r="O30" s="3">
+      <c r="T30" s="3">
         <v>0.39691588478809248</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5986,13 +6249,23 @@
         <v>26</v>
       </c>
       <c r="N31" s="3">
+        <v>0.91045396727293815</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.39495590401929748</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="S31" s="3">
         <v>0.91641544032332634</v>
       </c>
-      <c r="O31" s="3">
+      <c r="T31" s="3">
         <v>0.39881906517000559</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6018,13 +6291,23 @@
         <v>27</v>
       </c>
       <c r="N32" s="3">
+        <v>0.91347914720835921</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.38246809102345602</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="S32" s="3">
         <v>0.91718401128277638</v>
       </c>
-      <c r="O32" s="3">
+      <c r="T32" s="3">
         <v>0.38697986038763471</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6050,13 +6333,23 @@
         <v>28</v>
       </c>
       <c r="N33" s="3">
+        <v>0.91284025307522432</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.37354528691628691</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="S33" s="3">
         <v>0.91431860944516252</v>
       </c>
-      <c r="O33" s="3">
+      <c r="T33" s="3">
         <v>0.41001950594048059</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6082,13 +6375,23 @@
         <v>29</v>
       </c>
       <c r="N34" s="3">
+        <v>0.91320184810291682</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.33897102033577448</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="S34" s="3">
         <v>0.91402482133323393</v>
       </c>
-      <c r="O34" s="3">
+      <c r="T34" s="3">
         <v>0.39437206374319189</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6114,13 +6417,23 @@
         <v>30</v>
       </c>
       <c r="N35" s="3">
+        <v>0.91469191366183999</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.34821879903991082</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="S35" s="3">
         <v>0.91467658667899387</v>
       </c>
-      <c r="O35" s="3">
+      <c r="T35" s="3">
         <v>0.4454616877559745</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6146,13 +6459,23 @@
         <v>31</v>
       </c>
       <c r="N36" s="3">
+        <v>0.9121370183548152</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.37886094659264441</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="S36" s="3">
         <v>0.91377918955119264</v>
       </c>
-      <c r="O36" s="3">
+      <c r="T36" s="3">
         <v>0.44003922301779042</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6178,13 +6501,23 @@
         <v>32</v>
       </c>
       <c r="N37" s="3">
+        <v>0.9093318006702199</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.45233962134035338</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="S37" s="3">
         <v>0.91463797687703963</v>
       </c>
-      <c r="O37" s="3">
+      <c r="T37" s="3">
         <v>0.39341116856419422</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6210,13 +6543,23 @@
         <v>33</v>
       </c>
       <c r="N38" s="3">
+        <v>0.91200567987169112</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.36603230318934721</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="S38" s="3">
         <v>0.9172809112516408</v>
       </c>
-      <c r="O38" s="3">
+      <c r="T38" s="3">
         <v>0.34003429378544819</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6242,13 +6585,23 @@
         <v>34</v>
       </c>
       <c r="N39" s="3">
+        <v>0.913070630731323</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.39009480154484572</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="S39" s="3">
         <v>0.91567609942069617</v>
       </c>
-      <c r="O39" s="3">
+      <c r="T39" s="3">
         <v>0.37609375561764952</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6274,13 +6627,23 @@
         <v>35</v>
       </c>
       <c r="N40" s="3">
+        <v>0.91262390636704538</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.36933683844086002</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="S40" s="3">
         <v>0.91449227287901691</v>
       </c>
-      <c r="O40" s="3">
+      <c r="T40" s="3">
         <v>0.40884290123165667</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6306,13 +6669,23 @@
         <v>36</v>
       </c>
       <c r="N41" s="3">
+        <v>0.91344464264080683</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.39295478340743639</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="S41" s="3">
         <v>0.91416950909439165</v>
       </c>
-      <c r="O41" s="3">
+      <c r="T41" s="3">
         <v>0.39484564368256192</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6338,13 +6711,23 @@
         <v>37</v>
       </c>
       <c r="N42" s="3">
+        <v>0.91133853722957303</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.35754300358478491</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="S42" s="3">
         <v>0.91536719185468263</v>
       </c>
-      <c r="O42" s="3">
+      <c r="T42" s="3">
         <v>0.4405499570392416</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6370,13 +6753,23 @@
         <v>38</v>
       </c>
       <c r="N43" s="3">
+        <v>0.91190319841790757</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.40342004022803579</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="S43" s="3">
         <v>0.91576897088313913</v>
       </c>
-      <c r="O43" s="3">
+      <c r="T43" s="3">
         <v>0.3687152609541301</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6402,13 +6795,23 @@
         <v>39</v>
       </c>
       <c r="N44" s="3">
+        <v>0.91216829167592661</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.42781261266331783</v>
+      </c>
+      <c r="R44" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="S44" s="3">
         <v>0.9147998660208444</v>
       </c>
-      <c r="O44" s="3">
+      <c r="T44" s="3">
         <v>0.40257104356507312</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6434,13 +6837,23 @@
         <v>40</v>
       </c>
       <c r="N45" s="3">
+        <v>0.91354548745440256</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.38338699551935029</v>
+      </c>
+      <c r="R45" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S45" s="3">
         <v>0.91424161135204685</v>
       </c>
-      <c r="O45" s="3">
+      <c r="T45" s="3">
         <v>0.41426389125770458</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6466,13 +6879,23 @@
         <v>41</v>
       </c>
       <c r="N46" s="3">
+        <v>0.91302586371375272</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.41846506182558368</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="S46" s="3">
         <v>0.91408621853011629</v>
       </c>
-      <c r="O46" s="3">
+      <c r="T46" s="3">
         <v>0.44162951455098748</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6498,13 +6921,23 @@
         <v>42</v>
       </c>
       <c r="N47" s="3">
+        <v>0.91379630520861532</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.3719622314227844</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="S47" s="3">
         <v>0.91410209538498743</v>
       </c>
-      <c r="O47" s="3">
+      <c r="T47" s="3">
         <v>0.40804586444538848</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6530,13 +6963,23 @@
         <v>43</v>
       </c>
       <c r="N48" s="3">
+        <v>0.91194140643331167</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0.37904447506022582</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="S48" s="3">
         <v>0.91586147783740102</v>
       </c>
-      <c r="O48" s="3">
+      <c r="T48" s="3">
         <v>0.39836986921977269</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6562,13 +7005,23 @@
         <v>44</v>
       </c>
       <c r="N49" s="3">
+        <v>0.91357259441659755</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0.3923925238443412</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="S49" s="3">
         <v>0.91677789000881449</v>
       </c>
-      <c r="O49" s="3">
+      <c r="T49" s="3">
         <v>0.39996472523342508</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6594,13 +7047,23 @@
         <v>45</v>
       </c>
       <c r="N50" s="3">
+        <v>0.91379950960577072</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0.3786837675898248</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="S50" s="3">
         <v>0.91708593158818164</v>
       </c>
-      <c r="O50" s="3">
+      <c r="T50" s="3">
         <v>0.38912587901636991</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6626,13 +7089,23 @@
         <v>46</v>
       </c>
       <c r="N51" s="3">
+        <v>0.91306805724144591</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0.40643717131231077</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="S51" s="3">
         <v>0.91625575276340765</v>
       </c>
-      <c r="O51" s="3">
+      <c r="T51" s="3">
         <v>0.44732877335927668</v>
       </c>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6658,13 +7131,23 @@
         <v>47</v>
       </c>
       <c r="N52" s="3">
+        <v>0.91192090172372231</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0.41428238640324833</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="S52" s="3">
         <v>0.91852446230503537</v>
       </c>
-      <c r="O52" s="3">
+      <c r="T52" s="3">
         <v>0.3380688335154195</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6690,13 +7173,23 @@
         <v>48</v>
       </c>
       <c r="N53" s="3">
+        <v>0.91090990794508386</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0.3925097258139274</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="S53" s="3">
         <v>0.91486079051840807</v>
       </c>
-      <c r="O53" s="3">
+      <c r="T53" s="3">
         <v>0.43483910889518212</v>
       </c>
     </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6722,13 +7215,23 @@
         <v>49</v>
       </c>
       <c r="N54" s="3">
+        <v>0.91245183847036637</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0.37183555755799658</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="S54" s="3">
         <v>0.91394752193381767</v>
       </c>
-      <c r="O54" s="3">
+      <c r="T54" s="3">
         <v>0.42935014232565699</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6754,13 +7257,23 @@
         <v>50</v>
       </c>
       <c r="N55" s="3">
+        <v>0.91252176494777926</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0.39203177813006512</v>
+      </c>
+      <c r="R55" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="S55" s="3">
         <v>0.91717594991159113</v>
       </c>
-      <c r="O55" s="3">
+      <c r="T55" s="3">
         <v>0.41452494778909632</v>
       </c>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
@@ -6788,14 +7301,25 @@
       </c>
       <c r="N57" s="3">
         <f>AVERAGE(N6:N55)</f>
-        <v>0.91580572419307349</v>
+        <v>0.91279702532560436</v>
       </c>
       <c r="O57" s="3">
         <f>AVERAGE(O6:O55)</f>
+        <v>0.38291683774093449</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3">
+        <f>AVERAGE(S6:S55)</f>
+        <v>0.91580572419307349</v>
+      </c>
+      <c r="T57" s="3">
+        <f>AVERAGE(T6:T55)</f>
         <v>0.3996071039119895</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
@@ -6823,10 +7347,21 @@
       </c>
       <c r="N58" s="3">
         <f>_xlfn.STDEV.S(N6:N55)</f>
-        <v>1.5188559427630813E-3</v>
+        <v>1.6236559627426552E-3</v>
       </c>
       <c r="O58" s="3">
         <f>_xlfn.STDEV.S(O6:O55)</f>
+        <v>2.9620820845424164E-2</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
+        <f>_xlfn.STDEV.S(S6:S55)</f>
+        <v>1.5188559427630813E-3</v>
+      </c>
+      <c r="T58" s="3">
+        <f>_xlfn.STDEV.S(T6:T55)</f>
         <v>2.681351017293333E-2</v>
       </c>
     </row>
